--- a/backend/data/QuoteTemplate.xlsx
+++ b/backend/data/QuoteTemplate.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U217"/>
+  <dimension ref="A1:U234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD15"/>
@@ -16520,6 +16520,1264 @@
         </is>
       </c>
     </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>ผู้ไม่ประสงค์ออกนาม</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>2026-01-07T10:22:12</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>2026-01-07T10:22:12</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>DELIVERY</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>0</v>
+      </c>
+      <c r="O218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P218" t="n">
+        <v>1088.88</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>1165.096666666667</v>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>2026-01-07T10:22:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>ผู้ไม่ประสงค์ออกนาม</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>2026-01-07T10:22:12</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>2026-01-07T10:22:17</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>DELIVERY</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>0</v>
+      </c>
+      <c r="O219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P219" t="n">
+        <v>1083.536666666667</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>1165.096666666667</v>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>2026-01-07T10:22:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>43089TR</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>ห้างหุ้นส่วนจำกัด เอ็ม ดี กลาส</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>2026-01-07T14:21:36</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>2026-01-07T14:21:36</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>0</v>
+      </c>
+      <c r="O220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P220" t="n">
+        <v>1350.12</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>1444.625</v>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>2026-01-07T14:21:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>43089TR</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>ห้างหุ้นส่วนจำกัด เอ็ม ดี กลาส</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>2026-01-07T14:41:20</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>2026-01-07T14:41:20</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>0</v>
+      </c>
+      <c r="O221" t="n">
+        <v>0</v>
+      </c>
+      <c r="P221" t="n">
+        <v>549.65</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>588.125</v>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>2026-01-07T14:41:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0004</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>43089TR</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>ห้างหุ้นส่วนจำกัด เอ็ม ดี กลาส</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>2026-01-07T14:53:20</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>2026-01-07T14:53:20</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P222" t="n">
+        <v>1343.505</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>1444.625</v>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>2026-01-07T14:53:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0005</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>08015AY</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>ร้าน จำรัส</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>2026-01-07T15:20:54</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>2026-01-07T15:20:54</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>0</v>
+      </c>
+      <c r="O223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P223" t="n">
+        <v>326.29</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>349.125</v>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>2026-01-07T15:20:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0006</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>08015AY</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>ร้าน จำรัส</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>2026-01-07T18:47:12</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>2026-01-07T18:47:12</t>
+        </is>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P224" t="n">
+        <v>95.33</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>102</v>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>2026-01-07T18:47:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>43089TR</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>ห้างหุ้นส่วนจำกัด เอ็ม ดี กลาส</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>2026-01-07T20:32:29</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>2026-01-07T20:32:29</t>
+        </is>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>DELIVERY</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P225" t="n">
+        <v>3183.79</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>3406.65</v>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>2026-01-07T20:32:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>43089TR</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>ห้างหุ้นส่วนจำกัด เอ็ม ดี กลาส</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>2026-01-07T20:32:29</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>2026-01-07T21:53:23</t>
+        </is>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>DELIVERY</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P226" t="n">
+        <v>3689.91</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>3967.65</v>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>2026-01-07T21:53:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>08015AY</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>ร้าน จำรัส</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:26:12</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:26:12</t>
+        </is>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P227" t="n">
+        <v>166.82</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:26:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>08015AY</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>ร้าน จำรัส</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:26:12</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:26:34</t>
+        </is>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P228" t="n">
+        <v>166</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:26:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>43089TR</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>ห้างหุ้นส่วนจำกัด เอ็ม ดี กลาส</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:28:16</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:28:16</t>
+        </is>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P229" t="n">
+        <v>1036.21</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>1108.75</v>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:28:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>08015AY</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>ร้าน จำรัส</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:52:51</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:52:51</t>
+        </is>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
+        <v>0</v>
+      </c>
+      <c r="O230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P230" t="n">
+        <v>878.62</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>940.125</v>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:52:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>08015AY</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>ร้าน จำรัส</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:52:51</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:53:47</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
+        <v>0</v>
+      </c>
+      <c r="O231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P231" t="n">
+        <v>874.3150000000001</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>940.125</v>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:53:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>08015AY</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>ร้าน จำรัส</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:52:51</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:53:48</t>
+        </is>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
+        <v>0</v>
+      </c>
+      <c r="O232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P232" t="n">
+        <v>874.3150000000001</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>940.125</v>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:53:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>08015AY</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>ร้าน จำรัส</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:56:21</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:56:21</t>
+        </is>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P233" t="n">
+        <v>1428.71</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>1536.25</v>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:56:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>08015AY</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>ร้าน จำรัส</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:56:21</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:57:08</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P234" t="n">
+        <v>1583.09</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>1702.25</v>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>2026-01-07T22:57:08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16531,7 +17789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K780"/>
+  <dimension ref="A1:K873"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -51863,7 +53121,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K777" t="inlineStr"/>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
@@ -51910,7 +53167,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K778" t="inlineStr"/>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
@@ -51957,7 +53213,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K779" t="inlineStr"/>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
@@ -52004,7 +53259,4292 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K780" t="inlineStr"/>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>A01000000100000000</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>อลูมิเนียมเส้น</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F781" t="n">
+        <v>1</v>
+      </c>
+      <c r="G781" t="n">
+        <v>160</v>
+      </c>
+      <c r="H781" t="n">
+        <v>160</v>
+      </c>
+      <c r="I781" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J781" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>C00010130026060065</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>โครงซีลายน์  No.26 พ่นสีเขียว (6-6.5 kg.)</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F782" t="n">
+        <v>1</v>
+      </c>
+      <c r="G782" t="n">
+        <v>160</v>
+      </c>
+      <c r="H782" t="n">
+        <v>160</v>
+      </c>
+      <c r="I782" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J782" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>E000090900I3100000</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>มุมประตู</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>ตัว</t>
+        </is>
+      </c>
+      <c r="F783" t="n">
+        <v>1</v>
+      </c>
+      <c r="G783" t="n">
+        <v>30</v>
+      </c>
+      <c r="H783" t="n">
+        <v>30</v>
+      </c>
+      <c r="I783" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J783" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>G01010010105020042</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 20x42 AGC</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F784" t="n">
+        <v>1</v>
+      </c>
+      <c r="G784" t="n">
+        <v>29</v>
+      </c>
+      <c r="H784" t="n">
+        <v>169.1666666666667</v>
+      </c>
+      <c r="I784" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J784" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>S00070150000000000</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>ปืนยิงกาว</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>อัน</t>
+        </is>
+      </c>
+      <c r="F785" t="n">
+        <v>1</v>
+      </c>
+      <c r="G785" t="n">
+        <v>72</v>
+      </c>
+      <c r="H785" t="n">
+        <v>72</v>
+      </c>
+      <c r="I785" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J785" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Y01010200109120240</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>ยิปซัมธรรมดาขอบลาด พลัส 9 มม. ตราช้าง</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F786" t="n">
+        <v>1</v>
+      </c>
+      <c r="G786" t="n">
+        <v>139</v>
+      </c>
+      <c r="H786" t="n">
+        <v>139</v>
+      </c>
+      <c r="I786" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J786" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>A01000000100000000</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>อลูมิเนียมเส้น</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F787" t="n">
+        <v>1</v>
+      </c>
+      <c r="G787" t="n">
+        <v>160</v>
+      </c>
+      <c r="H787" t="n">
+        <v>160</v>
+      </c>
+      <c r="I787" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J787" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>C00010130026060065</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>โครงซีลายน์  No.26 พ่นสีเขียว (6-6.5 kg.)</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F788" t="n">
+        <v>1</v>
+      </c>
+      <c r="G788" t="n">
+        <v>160</v>
+      </c>
+      <c r="H788" t="n">
+        <v>160</v>
+      </c>
+      <c r="I788" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J788" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>E000090900I3100000</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>มุมประตู</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>ตัว</t>
+        </is>
+      </c>
+      <c r="F789" t="n">
+        <v>1</v>
+      </c>
+      <c r="G789" t="n">
+        <v>30</v>
+      </c>
+      <c r="H789" t="n">
+        <v>30</v>
+      </c>
+      <c r="I789" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J789" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>G01010010105020042</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 20x42 AGC</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F790" t="n">
+        <v>1</v>
+      </c>
+      <c r="G790" t="n">
+        <v>29</v>
+      </c>
+      <c r="H790" t="n">
+        <v>169.1666666666667</v>
+      </c>
+      <c r="I790" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J790" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>S00070150000000000</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>ปืนยิงกาว</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>อัน</t>
+        </is>
+      </c>
+      <c r="F791" t="n">
+        <v>1</v>
+      </c>
+      <c r="G791" t="n">
+        <v>72</v>
+      </c>
+      <c r="H791" t="n">
+        <v>72</v>
+      </c>
+      <c r="I791" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J791" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Y01010200109120240</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>ยิปซัมธรรมดาขอบลาด พลัส 9 มม. ตราช้าง</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F792" t="n">
+        <v>1</v>
+      </c>
+      <c r="G792" t="n">
+        <v>139</v>
+      </c>
+      <c r="H792" t="n">
+        <v>139</v>
+      </c>
+      <c r="I792" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J792" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>A01010010108100000</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>คิ้วประตูบานสวิง สีขาว บาง</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F793" t="n">
+        <v>1</v>
+      </c>
+      <c r="G793" t="n">
+        <v>69</v>
+      </c>
+      <c r="H793" t="n">
+        <v>69</v>
+      </c>
+      <c r="I793" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J793" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>C00010130026060065</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>โครงซีลายน์  No.26 พ่นสีเขียว (6-6.5 kg.)</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F794" t="n">
+        <v>1</v>
+      </c>
+      <c r="G794" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="H794" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="I794" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J794" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>E002030210C0010100</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>ลูกล้อบานเลื่อนเดี่ยว (เขียว) TOP (รับนน. 25Kg.)</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>ตัว</t>
+        </is>
+      </c>
+      <c r="F795" t="n">
+        <v>1</v>
+      </c>
+      <c r="G795" t="n">
+        <v>53</v>
+      </c>
+      <c r="H795" t="n">
+        <v>53</v>
+      </c>
+      <c r="I795" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J795" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>G01010010105000000</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. AGC 1000x1050 MM</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F796" t="n">
+        <v>1</v>
+      </c>
+      <c r="G796" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="H796" t="n">
+        <v>349.125</v>
+      </c>
+      <c r="I796" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J796" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>S00070150000000000</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>ปืนยิงกาว</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>อัน</t>
+        </is>
+      </c>
+      <c r="F797" t="n">
+        <v>1</v>
+      </c>
+      <c r="G797" t="n">
+        <v>71</v>
+      </c>
+      <c r="H797" t="n">
+        <v>71</v>
+      </c>
+      <c r="I797" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J797" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>G01010010105048072</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 48x72 AGC</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F798" t="n">
+        <v>1</v>
+      </c>
+      <c r="G798" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H798" t="n">
+        <v>612</v>
+      </c>
+      <c r="I798" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J798" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>Y01010200109120240</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>ยิปซัมธรรมดาขอบลาด พลัส 9 มม. ตราช้าง</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F799" t="n">
+        <v>1</v>
+      </c>
+      <c r="G799" t="n">
+        <v>138</v>
+      </c>
+      <c r="H799" t="n">
+        <v>138</v>
+      </c>
+      <c r="I799" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J799" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>G01010010105000000</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. AGC 1000x1050 MM</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E800" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F800" t="n">
+        <v>1</v>
+      </c>
+      <c r="G800" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="H800" t="n">
+        <v>349.125</v>
+      </c>
+      <c r="I800" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J800" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>A01010010108100000</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>คิ้วประตูบานสวิง สีขาว บาง</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F801" t="n">
+        <v>1</v>
+      </c>
+      <c r="G801" t="n">
+        <v>69</v>
+      </c>
+      <c r="H801" t="n">
+        <v>69</v>
+      </c>
+      <c r="I801" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J801" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>G01010010105020048</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 20x48 AGC</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F802" t="n">
+        <v>1</v>
+      </c>
+      <c r="G802" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H802" t="n">
+        <v>170</v>
+      </c>
+      <c r="I802" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J802" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0004</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>A01010010108100000</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>คิ้วประตูบานสวิง สีขาว บาง</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F803" t="n">
+        <v>1</v>
+      </c>
+      <c r="G803" t="n">
+        <v>69</v>
+      </c>
+      <c r="H803" t="n">
+        <v>69</v>
+      </c>
+      <c r="I803" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J803" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0004</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>C00010130026060065</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>โครงซีลายน์  No.26 พ่นสีเขียว (6-6.5 kg.)</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F804" t="n">
+        <v>1</v>
+      </c>
+      <c r="G804" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="H804" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="I804" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J804" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0004</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>E002030210C0010100</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>ลูกล้อบานเลื่อนเดี่ยว (เขียว) TOP (รับนน. 25Kg.)</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>ตัว</t>
+        </is>
+      </c>
+      <c r="F805" t="n">
+        <v>1</v>
+      </c>
+      <c r="G805" t="n">
+        <v>53</v>
+      </c>
+      <c r="H805" t="n">
+        <v>53</v>
+      </c>
+      <c r="I805" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J805" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0004</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>G01010010105000000</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. AGC 1000x1050 MM</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F806" t="n">
+        <v>1</v>
+      </c>
+      <c r="G806" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="H806" t="n">
+        <v>349.125</v>
+      </c>
+      <c r="I806" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J806" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0004</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>S00070150000000000</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>ปืนยิงกาว</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>อัน</t>
+        </is>
+      </c>
+      <c r="F807" t="n">
+        <v>1</v>
+      </c>
+      <c r="G807" t="n">
+        <v>71</v>
+      </c>
+      <c r="H807" t="n">
+        <v>71</v>
+      </c>
+      <c r="I807" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J807" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0004</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>G01010010105048072</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 48x72 AGC</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F808" t="n">
+        <v>1</v>
+      </c>
+      <c r="G808" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H808" t="n">
+        <v>612</v>
+      </c>
+      <c r="I808" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J808" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0004</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Y01010200109120240</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>ยิปซัมธรรมดาขอบลาด พลัส 9 มม. ตราช้าง</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F809" t="n">
+        <v>1</v>
+      </c>
+      <c r="G809" t="n">
+        <v>138</v>
+      </c>
+      <c r="H809" t="n">
+        <v>138</v>
+      </c>
+      <c r="I809" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J809" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0005</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>G01010010105000000</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. AGC 1000x1050 MM</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F810" t="n">
+        <v>1</v>
+      </c>
+      <c r="G810" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="H810" t="n">
+        <v>349.125</v>
+      </c>
+      <c r="I810" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J810" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0006</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>G01010010105024024</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 24x24 AGC</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F811" t="n">
+        <v>1</v>
+      </c>
+      <c r="G811" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H811" t="n">
+        <v>102</v>
+      </c>
+      <c r="I811" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J811" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>A01010010108100000</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>คิ้วประตูบานสวิง สีขาว บาง</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F812" t="n">
+        <v>2</v>
+      </c>
+      <c r="G812" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="H812" t="n">
+        <v>139</v>
+      </c>
+      <c r="I812" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J812" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>G01010010105060096</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 60x96 AGC</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F813" t="n">
+        <v>2</v>
+      </c>
+      <c r="G813" t="n">
+        <v>26</v>
+      </c>
+      <c r="H813" t="n">
+        <v>2080</v>
+      </c>
+      <c r="I813" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J813" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>G01010010105000000</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. AGC 728x1843 MM</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F814" t="n">
+        <v>1</v>
+      </c>
+      <c r="G814" t="n">
+        <v>29</v>
+      </c>
+      <c r="H814" t="n">
+        <v>507.5</v>
+      </c>
+      <c r="I814" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J814" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>E056141301N4400000</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>รีเวท 4-4 สีขาวอลู ตราคนป่า</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>กล่อง</t>
+        </is>
+      </c>
+      <c r="F815" t="n">
+        <v>1</v>
+      </c>
+      <c r="G815" t="n">
+        <v>34</v>
+      </c>
+      <c r="H815" t="n">
+        <v>34</v>
+      </c>
+      <c r="I815" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J815" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>S09050210300000460</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>อะครีลิค 3DI (หลอดสีน้ำเงิน) สีดำ</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F816" t="n">
+        <v>1</v>
+      </c>
+      <c r="G816" t="n">
+        <v>84</v>
+      </c>
+      <c r="H816" t="n">
+        <v>84</v>
+      </c>
+      <c r="I816" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J816" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>Y01010100112120240</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>ยิปซัมธรรมดาขอบเรียบ พลัส 12 มม. ตราช้าง</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E817" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F817" t="n">
+        <v>1</v>
+      </c>
+      <c r="G817" t="n">
+        <v>84</v>
+      </c>
+      <c r="H817" t="n">
+        <v>84</v>
+      </c>
+      <c r="I817" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J817" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>A01000000100000000</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>อลูมิเนียมเส้น</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E818" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F818" t="n">
+        <v>1</v>
+      </c>
+      <c r="G818" t="n">
+        <v>160</v>
+      </c>
+      <c r="H818" t="n">
+        <v>160</v>
+      </c>
+      <c r="I818" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J818" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>C00010130026060065</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>โครงซีลายน์  No.26 พ่นสีเขียว (6-6.5 kg.)</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E819" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F819" t="n">
+        <v>1</v>
+      </c>
+      <c r="G819" t="n">
+        <v>160</v>
+      </c>
+      <c r="H819" t="n">
+        <v>160</v>
+      </c>
+      <c r="I819" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J819" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>E000090900I3100000</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>มุมประตู</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E820" t="inlineStr">
+        <is>
+          <t>ตัว</t>
+        </is>
+      </c>
+      <c r="F820" t="n">
+        <v>1</v>
+      </c>
+      <c r="G820" t="n">
+        <v>30</v>
+      </c>
+      <c r="H820" t="n">
+        <v>30</v>
+      </c>
+      <c r="I820" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J820" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>S00070150000000000</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>ปืนยิงกาว</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E821" t="inlineStr">
+        <is>
+          <t>อัน</t>
+        </is>
+      </c>
+      <c r="F821" t="n">
+        <v>1</v>
+      </c>
+      <c r="G821" t="n">
+        <v>72</v>
+      </c>
+      <c r="H821" t="n">
+        <v>72</v>
+      </c>
+      <c r="I821" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J821" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>Y01010200109120240</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>ยิปซัมธรรมดาขอบลาด พลัส 9 มม. ตราช้าง</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F822" t="n">
+        <v>1</v>
+      </c>
+      <c r="G822" t="n">
+        <v>139</v>
+      </c>
+      <c r="H822" t="n">
+        <v>139</v>
+      </c>
+      <c r="I822" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J822" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>A01010010108100000</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>คิ้วประตูบานสวิง สีขาว บาง</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E823" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F823" t="n">
+        <v>2</v>
+      </c>
+      <c r="G823" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="H823" t="n">
+        <v>139</v>
+      </c>
+      <c r="I823" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J823" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>G01010010105060096</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 60x96 AGC</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E824" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F824" t="n">
+        <v>2</v>
+      </c>
+      <c r="G824" t="n">
+        <v>1040</v>
+      </c>
+      <c r="H824" t="n">
+        <v>2080</v>
+      </c>
+      <c r="I824" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J824" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>G01010010105000000</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. AGC 728x1843 MM</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F825" t="n">
+        <v>1</v>
+      </c>
+      <c r="G825" t="n">
+        <v>507.5</v>
+      </c>
+      <c r="H825" t="n">
+        <v>507.5</v>
+      </c>
+      <c r="I825" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J825" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>E056141301N4400000</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>รีเวท 4-4 สีขาวอลู ตราคนป่า</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>กล่อง</t>
+        </is>
+      </c>
+      <c r="F826" t="n">
+        <v>1</v>
+      </c>
+      <c r="G826" t="n">
+        <v>34</v>
+      </c>
+      <c r="H826" t="n">
+        <v>34</v>
+      </c>
+      <c r="I826" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J826" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>S09050210300000460</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>อะครีลิค 3DI (หลอดสีน้ำเงิน) สีดำ</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F827" t="n">
+        <v>1</v>
+      </c>
+      <c r="G827" t="n">
+        <v>84</v>
+      </c>
+      <c r="H827" t="n">
+        <v>84</v>
+      </c>
+      <c r="I827" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J827" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>Y01010100112120240</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>ยิปซัมธรรมดาขอบเรียบ พลัส 12 มม. ตราช้าง</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F828" t="n">
+        <v>1</v>
+      </c>
+      <c r="G828" t="n">
+        <v>84</v>
+      </c>
+      <c r="H828" t="n">
+        <v>84</v>
+      </c>
+      <c r="I828" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J828" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>G01010010105024042</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 24x42 AGC</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E829" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F829" t="n">
+        <v>1</v>
+      </c>
+      <c r="G829" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H829" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="I829" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J829" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>G01010010105024042</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 24x42 AGC</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F830" t="n">
+        <v>1</v>
+      </c>
+      <c r="G830" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H830" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="I830" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J830" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>A01010010108100000</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>คิ้วประตูบานสวิง สีขาว บาง</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F831" t="n">
+        <v>1</v>
+      </c>
+      <c r="G831" t="n">
+        <v>69</v>
+      </c>
+      <c r="H831" t="n">
+        <v>69</v>
+      </c>
+      <c r="I831" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J831" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>C00010130026060065</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>โครงซีลายน์  No.26 พ่นสีเขียว (6-6.5 kg.)</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F832" t="n">
+        <v>1</v>
+      </c>
+      <c r="G832" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="H832" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="I832" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J832" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>E000090900I3100000</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>มุมประตู</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>ตัว</t>
+        </is>
+      </c>
+      <c r="F833" t="n">
+        <v>1</v>
+      </c>
+      <c r="G833" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="H833" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I833" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J833" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>G01010010105000000</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. AGC 728x1843 MM</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F834" t="n">
+        <v>1</v>
+      </c>
+      <c r="G834" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="H834" t="n">
+        <v>498.75</v>
+      </c>
+      <c r="I834" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J834" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>G01010010105018048</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 18x48 AGC</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F835" t="n">
+        <v>1</v>
+      </c>
+      <c r="G835" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H835" t="n">
+        <v>153</v>
+      </c>
+      <c r="I835" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J835" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>S00070150000000000</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>ปืนยิงกาว</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>อัน</t>
+        </is>
+      </c>
+      <c r="F836" t="n">
+        <v>1</v>
+      </c>
+      <c r="G836" t="n">
+        <v>71</v>
+      </c>
+      <c r="H836" t="n">
+        <v>71</v>
+      </c>
+      <c r="I836" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J836" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>Y01010200109120240</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>ยิปซัมธรรมดาขอบลาด พลัส 9 มม. ตราช้าง</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F837" t="n">
+        <v>1</v>
+      </c>
+      <c r="G837" t="n">
+        <v>138</v>
+      </c>
+      <c r="H837" t="n">
+        <v>138</v>
+      </c>
+      <c r="I837" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J837" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>G01010010105000000</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. AGC 1000x1050 MM</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F838" t="n">
+        <v>1</v>
+      </c>
+      <c r="G838" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="H838" t="n">
+        <v>349.125</v>
+      </c>
+      <c r="I838" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J838" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>A01010010108100000</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>คิ้วประตูบานสวิง สีขาว บาง</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F839" t="n">
+        <v>1</v>
+      </c>
+      <c r="G839" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="H839" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="I839" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J839" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>C00010130026060065</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>โครงซีลายน์  No.26 พ่นสีเขียว (6-6.5 kg.)</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F840" t="n">
+        <v>1</v>
+      </c>
+      <c r="G840" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="H840" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="I840" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J840" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>E000090900I3100000</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>มุมประตู</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>ตัว</t>
+        </is>
+      </c>
+      <c r="F841" t="n">
+        <v>1</v>
+      </c>
+      <c r="G841" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="H841" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I841" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J841" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>G01010010105024042</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 24x42 AGC</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E842" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F842" t="n">
+        <v>1</v>
+      </c>
+      <c r="G842" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H842" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="I842" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J842" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>S01010010100000300</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีใส</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E843" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F843" t="n">
+        <v>1</v>
+      </c>
+      <c r="G843" t="n">
+        <v>83</v>
+      </c>
+      <c r="H843" t="n">
+        <v>83</v>
+      </c>
+      <c r="I843" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J843" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>Y01010100112120240</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>ยิปซัมธรรมดาขอบเรียบ พลัส 12 มม. ตราช้าง</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E844" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F844" t="n">
+        <v>1</v>
+      </c>
+      <c r="G844" t="n">
+        <v>83</v>
+      </c>
+      <c r="H844" t="n">
+        <v>83</v>
+      </c>
+      <c r="I844" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J844" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>G01010010105000000</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. AGC 1000x1050 MM</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E845" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F845" t="n">
+        <v>1</v>
+      </c>
+      <c r="G845" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="H845" t="n">
+        <v>349.125</v>
+      </c>
+      <c r="I845" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J845" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>A01010010108100000</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>คิ้วประตูบานสวิง สีขาว บาง</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E846" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F846" t="n">
+        <v>1</v>
+      </c>
+      <c r="G846" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="H846" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="I846" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J846" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>C00010130026060065</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>โครงซีลายน์  No.26 พ่นสีเขียว (6-6.5 kg.)</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E847" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F847" t="n">
+        <v>1</v>
+      </c>
+      <c r="G847" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="H847" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="I847" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J847" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>E000090900I3100000</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>มุมประตู</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E848" t="inlineStr">
+        <is>
+          <t>ตัว</t>
+        </is>
+      </c>
+      <c r="F848" t="n">
+        <v>1</v>
+      </c>
+      <c r="G848" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="H848" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I848" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J848" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>G01010010105024042</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 24x42 AGC</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E849" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F849" t="n">
+        <v>1</v>
+      </c>
+      <c r="G849" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H849" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="I849" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J849" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>S01010010100000300</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีใส</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E850" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F850" t="n">
+        <v>1</v>
+      </c>
+      <c r="G850" t="n">
+        <v>83</v>
+      </c>
+      <c r="H850" t="n">
+        <v>83</v>
+      </c>
+      <c r="I850" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J850" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>Y01010100112120240</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>ยิปซัมธรรมดาขอบเรียบ พลัส 12 มม. ตราช้าง</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E851" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F851" t="n">
+        <v>1</v>
+      </c>
+      <c r="G851" t="n">
+        <v>83</v>
+      </c>
+      <c r="H851" t="n">
+        <v>83</v>
+      </c>
+      <c r="I851" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J851" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>G01010010105000000</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. AGC 1000x1050 MM</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E852" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F852" t="n">
+        <v>1</v>
+      </c>
+      <c r="G852" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="H852" t="n">
+        <v>349.125</v>
+      </c>
+      <c r="I852" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J852" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>A01010010108100000</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>คิ้วประตูบานสวิง สีขาว บาง</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E853" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F853" t="n">
+        <v>1</v>
+      </c>
+      <c r="G853" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="H853" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="I853" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J853" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>C00010130026060065</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>โครงซีลายน์  No.26 พ่นสีเขียว (6-6.5 kg.)</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E854" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F854" t="n">
+        <v>1</v>
+      </c>
+      <c r="G854" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="H854" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="I854" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J854" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>E000090900I3100000</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>มุมประตู</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E855" t="inlineStr">
+        <is>
+          <t>ตัว</t>
+        </is>
+      </c>
+      <c r="F855" t="n">
+        <v>1</v>
+      </c>
+      <c r="G855" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="H855" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I855" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J855" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>G01010010105024042</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 24x42 AGC</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F856" t="n">
+        <v>1</v>
+      </c>
+      <c r="G856" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H856" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="I856" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J856" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>S01010010100000300</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีใส</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F857" t="n">
+        <v>1</v>
+      </c>
+      <c r="G857" t="n">
+        <v>83</v>
+      </c>
+      <c r="H857" t="n">
+        <v>83</v>
+      </c>
+      <c r="I857" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J857" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>Y01010100112120240</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>ยิปซัมธรรมดาขอบเรียบ พลัส 12 มม. ตราช้าง</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E858" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F858" t="n">
+        <v>1</v>
+      </c>
+      <c r="G858" t="n">
+        <v>83</v>
+      </c>
+      <c r="H858" t="n">
+        <v>83</v>
+      </c>
+      <c r="I858" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J858" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>G01010010105000000</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. AGC 1000x1050 MM</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F859" t="n">
+        <v>2</v>
+      </c>
+      <c r="G859" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="H859" t="n">
+        <v>698.25</v>
+      </c>
+      <c r="I859" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J859" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>A01010010108100000</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>คิ้วประตูบานสวิง สีขาว บาง</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E860" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F860" t="n">
+        <v>2</v>
+      </c>
+      <c r="G860" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="H860" t="n">
+        <v>137</v>
+      </c>
+      <c r="I860" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J860" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>C00010130026060065</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>โครงซีลายน์  No.26 พ่นสีเขียว (6-6.5 kg.)</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E861" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F861" t="n">
+        <v>1</v>
+      </c>
+      <c r="G861" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="H861" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="I861" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J861" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>E000090900I3100000</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>มุมประตู</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E862" t="inlineStr">
+        <is>
+          <t>ตัว</t>
+        </is>
+      </c>
+      <c r="F862" t="n">
+        <v>1</v>
+      </c>
+      <c r="G862" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="H862" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I862" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J862" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>G01010010105024042</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 24x42 AGC</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E863" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F863" t="n">
+        <v>2</v>
+      </c>
+      <c r="G863" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H863" t="n">
+        <v>357</v>
+      </c>
+      <c r="I863" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J863" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>S01010010100000300</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีใส</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F864" t="n">
+        <v>1</v>
+      </c>
+      <c r="G864" t="n">
+        <v>83</v>
+      </c>
+      <c r="H864" t="n">
+        <v>83</v>
+      </c>
+      <c r="I864" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J864" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>Y01010100112120240</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>ยิปซัมธรรมดาขอบเรียบ พลัส 12 มม. ตราช้าง</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E865" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F865" t="n">
+        <v>1</v>
+      </c>
+      <c r="G865" t="n">
+        <v>83</v>
+      </c>
+      <c r="H865" t="n">
+        <v>83</v>
+      </c>
+      <c r="I865" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J865" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>G01010010105000000</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. AGC 1000x1050 MM</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E866" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F866" t="n">
+        <v>2</v>
+      </c>
+      <c r="G866" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="H866" t="n">
+        <v>698.25</v>
+      </c>
+      <c r="I866" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J866" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K866" t="inlineStr"/>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>A01010010108100000</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>คิ้วประตูบานสวิง สีขาว บาง</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F867" t="n">
+        <v>2</v>
+      </c>
+      <c r="G867" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="H867" t="n">
+        <v>137</v>
+      </c>
+      <c r="I867" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J867" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K867" t="inlineStr"/>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>C00010130026060065</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>โครงซีลายน์  No.26 พ่นสีเขียว (6-6.5 kg.)</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F868" t="n">
+        <v>1</v>
+      </c>
+      <c r="G868" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="H868" t="n">
+        <v>151.5</v>
+      </c>
+      <c r="I868" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J868" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K868" t="inlineStr"/>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>E000090900I3100000</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>มุมประตู</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>ตัว</t>
+        </is>
+      </c>
+      <c r="F869" t="n">
+        <v>1</v>
+      </c>
+      <c r="G869" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="H869" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I869" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J869" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K869" t="inlineStr"/>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>G01010010105024042</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 24x42 AGC</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E870" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F870" t="n">
+        <v>2</v>
+      </c>
+      <c r="G870" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H870" t="n">
+        <v>357</v>
+      </c>
+      <c r="I870" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J870" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K870" t="inlineStr"/>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>S01010010100000300</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีใส</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F871" t="n">
+        <v>1</v>
+      </c>
+      <c r="G871" t="n">
+        <v>83</v>
+      </c>
+      <c r="H871" t="n">
+        <v>83</v>
+      </c>
+      <c r="I871" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J871" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K871" t="inlineStr"/>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>Y01010100112120240</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>ยิปซัมธรรมดาขอบเรียบ พลัส 12 มม. ตราช้าง</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E872" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F872" t="n">
+        <v>2</v>
+      </c>
+      <c r="G872" t="n">
+        <v>83</v>
+      </c>
+      <c r="H872" t="n">
+        <v>166</v>
+      </c>
+      <c r="I872" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J872" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K872" t="inlineStr"/>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>Y01021800109120275</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>ยิปซั่มอีซี่ฟินิช ขอบลาด 9 มม.120x275 ซม.ตราช้าง</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E873" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F873" t="n">
+        <v>1</v>
+      </c>
+      <c r="G873" t="n">
+        <v>83</v>
+      </c>
+      <c r="H873" t="n">
+        <v>83</v>
+      </c>
+      <c r="I873" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J873" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K873" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data/QuoteTemplate.xlsx
+++ b/backend/data/QuoteTemplate.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U234"/>
+  <dimension ref="A1:U235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD15"/>
@@ -17778,6 +17778,80 @@
         </is>
       </c>
     </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>08015AY</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>ร้าน จำรัส</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>2026-01-07T23:13:10</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>2026-01-07T23:13:10</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P235" t="n">
+        <v>207.01</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>2026-01-07T23:13:10</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17789,7 +17863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K873"/>
+  <dimension ref="A1:K875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -57215,7 +57289,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K866" t="inlineStr"/>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
@@ -57262,7 +57335,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K867" t="inlineStr"/>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
@@ -57309,7 +57381,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K868" t="inlineStr"/>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
@@ -57356,7 +57427,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K869" t="inlineStr"/>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
@@ -57403,7 +57473,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K870" t="inlineStr"/>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
@@ -57450,7 +57519,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K871" t="inlineStr"/>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
@@ -57497,7 +57565,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K872" t="inlineStr"/>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
@@ -57544,7 +57611,100 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K873" t="inlineStr"/>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>A01010010108100000</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>คิ้วประตูบานสวิง สีขาว บาง</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E874" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F874" t="n">
+        <v>1</v>
+      </c>
+      <c r="G874" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="H874" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="I874" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J874" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K874" t="inlineStr"/>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>G01010010105024036</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 24x36 AGC</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E875" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F875" t="n">
+        <v>1</v>
+      </c>
+      <c r="G875" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H875" t="n">
+        <v>153</v>
+      </c>
+      <c r="I875" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J875" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K875" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data/QuoteTemplate.xlsx
+++ b/backend/data/QuoteTemplate.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U235"/>
+  <dimension ref="A1:U236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD15"/>
@@ -17852,6 +17852,80 @@
         </is>
       </c>
     </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>08015AY</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>ร้าน จำรัส</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>2026-01-07T23:13:10</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>2026-01-07T23:43:44</t>
+        </is>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
+        <v>0</v>
+      </c>
+      <c r="O236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P236" t="n">
+        <v>704.01</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>757</v>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>2026-01-07T23:43:44</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17863,7 +17937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K875"/>
+  <dimension ref="A1:K878"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -57657,7 +57731,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K874" t="inlineStr"/>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
@@ -57704,7 +57777,147 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K875" t="inlineStr"/>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>A01010010108100000</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>คิ้วประตูบานสวิง สีขาว บาง</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F876" t="n">
+        <v>1</v>
+      </c>
+      <c r="G876" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="H876" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="I876" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J876" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K876" t="inlineStr"/>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>G01010010105024036</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 24x36 AGC</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E877" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F877" t="n">
+        <v>1</v>
+      </c>
+      <c r="G877" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H877" t="n">
+        <v>153</v>
+      </c>
+      <c r="I877" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J877" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K877" t="inlineStr"/>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>G01010010105036084</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 36x84 AGC</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E878" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F878" t="n">
+        <v>1</v>
+      </c>
+      <c r="G878" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="H878" t="n">
+        <v>535.5</v>
+      </c>
+      <c r="I878" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J878" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K878" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data/QuoteTemplate.xlsx
+++ b/backend/data/QuoteTemplate.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U236"/>
+  <dimension ref="A1:U243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD15"/>
@@ -17926,6 +17926,524 @@
         </is>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>43089TR</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>ห้างหุ้นส่วนจำกัด เอ็ม ดี กลาส</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>2026-01-08T12:44:05</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>2026-01-08T12:44:05</t>
+        </is>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>DELIVERY</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
+        <v>0</v>
+      </c>
+      <c r="O237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P237" t="n">
+        <v>2650.6</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>2836.14</v>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>2026-01-08T12:44:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>43089TR</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>ห้างหุ้นส่วนจำกัด เอ็ม ดี กลาส</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>2026-01-08T12:44:05</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>2026-01-08T12:45:59</t>
+        </is>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>DELIVERY</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>0</v>
+      </c>
+      <c r="O238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P238" t="n">
+        <v>1670.41</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>1796.14</v>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>2026-01-08T12:45:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>43089TR</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>ห้างหุ้นส่วนจำกัด เอ็ม ดี กลาส</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>2026-01-08T12:44:05</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>2026-01-08T12:46:25</t>
+        </is>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>DELIVERY</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
+        <v>0</v>
+      </c>
+      <c r="O239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P239" t="n">
+        <v>3200.26</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>3441.14</v>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>2026-01-08T12:46:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>01002TR</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>ร้าน ก๊กปอ</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>2026-01-08T13:14:53</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>2026-01-08T13:14:53</t>
+        </is>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>DELIVERY</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
+        <v>0</v>
+      </c>
+      <c r="O240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P240" t="n">
+        <v>1207.51</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>1292.04</v>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>2026-01-08T13:14:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>01002TR</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>ร้าน ก๊กปอ</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>2026-01-08T13:14:53</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>2026-01-08T13:15:42</t>
+        </is>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>DELIVERY</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
+        <v>0</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P241" t="n">
+        <v>1451.77</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>1561.04</v>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>2026-01-08T13:15:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>37003RY</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>บริษัท วีบี ควอลิตี้ ระยอง จำกัด</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>2026-01-08T14:15:53</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>2026-01-08T14:15:53</t>
+        </is>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
+        <v>0</v>
+      </c>
+      <c r="O242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P242" t="n">
+        <v>14464.49</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>15477</v>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>2026-01-08T14:15:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>6706089AY</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>นายเดชา ยิ้มชื่น</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>2026-01-08T14:54:02</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>2026-01-08T14:54:02</t>
+        </is>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
+        <v>0</v>
+      </c>
+      <c r="O243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P243" t="n">
+        <v>7065.42</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>7560</v>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>2026-01-08T14:54:02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17937,7 +18455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K878"/>
+  <dimension ref="A1:K918"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -57823,7 +58341,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K876" t="inlineStr"/>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
@@ -57870,7 +58387,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K877" t="inlineStr"/>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
@@ -57917,7 +58433,1847 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K878" t="inlineStr"/>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>A01010010112010000</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>กล่องร่องบานสวิง สีขาว 1.2</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F879" t="n">
+        <v>1</v>
+      </c>
+      <c r="G879" t="n">
+        <v>832.5</v>
+      </c>
+      <c r="H879" t="n">
+        <v>832.5</v>
+      </c>
+      <c r="I879" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J879" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>C00010120024090095</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>โครงซีลายน์  No.24 พ่นสีชมพู (9-9.5 kg.)</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E880" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F880" t="n">
+        <v>1</v>
+      </c>
+      <c r="G880" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="H880" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="I880" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J880" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>E072040315Z3011102</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>มือจับสแตนเลส GM รุ่น 111 SS ขนาด 25x350</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E881" t="inlineStr">
+        <is>
+          <t>คู่</t>
+        </is>
+      </c>
+      <c r="F881" t="n">
+        <v>1</v>
+      </c>
+      <c r="G881" t="n">
+        <v>34</v>
+      </c>
+      <c r="H881" t="n">
+        <v>34</v>
+      </c>
+      <c r="I881" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J881" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>G01010010105060096</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 60x96 AGC</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E882" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F882" t="n">
+        <v>1</v>
+      </c>
+      <c r="G882" t="n">
+        <v>26</v>
+      </c>
+      <c r="H882" t="n">
+        <v>1040</v>
+      </c>
+      <c r="I882" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J882" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>G01010010105000000</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. AGC 405x477 MM</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F883" t="n">
+        <v>1</v>
+      </c>
+      <c r="G883" t="n">
+        <v>29</v>
+      </c>
+      <c r="H883" t="n">
+        <v>435</v>
+      </c>
+      <c r="I883" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J883" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>S01010010100000300</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีใส</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F884" t="n">
+        <v>1</v>
+      </c>
+      <c r="G884" t="n">
+        <v>84</v>
+      </c>
+      <c r="H884" t="n">
+        <v>84</v>
+      </c>
+      <c r="I884" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J884" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>Y01010100112120240</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>ยิปซัมธรรมดาขอบเรียบ พลัส 12 มม. ตราช้าง</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F885" t="n">
+        <v>1</v>
+      </c>
+      <c r="G885" t="n">
+        <v>84</v>
+      </c>
+      <c r="H885" t="n">
+        <v>84</v>
+      </c>
+      <c r="I885" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J885" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>A01010010112010000</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>กล่องร่องบานสวิง สีขาว 1.2</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F886" t="n">
+        <v>1</v>
+      </c>
+      <c r="G886" t="n">
+        <v>832.5</v>
+      </c>
+      <c r="H886" t="n">
+        <v>832.5</v>
+      </c>
+      <c r="I886" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J886" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>C00010120024090095</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>โครงซีลายน์  No.24 พ่นสีชมพู (9-9.5 kg.)</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F887" t="n">
+        <v>1</v>
+      </c>
+      <c r="G887" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="H887" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="I887" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J887" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>E072040315Z3011102</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>มือจับสแตนเลส GM รุ่น 111 SS ขนาด 25x350</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>คู่</t>
+        </is>
+      </c>
+      <c r="F888" t="n">
+        <v>1</v>
+      </c>
+      <c r="G888" t="n">
+        <v>34</v>
+      </c>
+      <c r="H888" t="n">
+        <v>34</v>
+      </c>
+      <c r="I888" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J888" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>G01010010105060096</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 60x96 AGC</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F889" t="n">
+        <v>2</v>
+      </c>
+      <c r="G889" t="n">
+        <v>26</v>
+      </c>
+      <c r="H889" t="n">
+        <v>52</v>
+      </c>
+      <c r="I889" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J889" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>S01010010100000300</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีใส</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F890" t="n">
+        <v>1</v>
+      </c>
+      <c r="G890" t="n">
+        <v>84</v>
+      </c>
+      <c r="H890" t="n">
+        <v>84</v>
+      </c>
+      <c r="I890" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J890" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>Y01010100112120240</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>ยิปซัมธรรมดาขอบเรียบ พลัส 12 มม. ตราช้าง</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E891" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F891" t="n">
+        <v>1</v>
+      </c>
+      <c r="G891" t="n">
+        <v>84</v>
+      </c>
+      <c r="H891" t="n">
+        <v>84</v>
+      </c>
+      <c r="I891" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J891" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>G01010010105000000</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. AGC 800x1505 MM</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E892" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F892" t="n">
+        <v>1</v>
+      </c>
+      <c r="G892" t="n">
+        <v>29</v>
+      </c>
+      <c r="H892" t="n">
+        <v>435</v>
+      </c>
+      <c r="I892" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J892" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>A01010010112010000</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>กล่องร่องบานสวิง สีขาว 1.2</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E893" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F893" t="n">
+        <v>1</v>
+      </c>
+      <c r="G893" t="n">
+        <v>832.5</v>
+      </c>
+      <c r="H893" t="n">
+        <v>832.5</v>
+      </c>
+      <c r="I893" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J893" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>C00010120024090095</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>โครงซีลายน์  No.24 พ่นสีชมพู (9-9.5 kg.)</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E894" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F894" t="n">
+        <v>1</v>
+      </c>
+      <c r="G894" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="H894" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="I894" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J894" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>E072040315Z3011102</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>มือจับสแตนเลส GM รุ่น 111 SS ขนาด 25x350</t>
+        </is>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E895" t="inlineStr">
+        <is>
+          <t>คู่</t>
+        </is>
+      </c>
+      <c r="F895" t="n">
+        <v>1</v>
+      </c>
+      <c r="G895" t="n">
+        <v>34</v>
+      </c>
+      <c r="H895" t="n">
+        <v>34</v>
+      </c>
+      <c r="I895" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J895" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>G01010010105060096</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 60x96 AGC</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E896" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F896" t="n">
+        <v>2</v>
+      </c>
+      <c r="G896" t="n">
+        <v>26</v>
+      </c>
+      <c r="H896" t="n">
+        <v>2080</v>
+      </c>
+      <c r="I896" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J896" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>S01010010100000300</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีใส</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E897" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F897" t="n">
+        <v>1</v>
+      </c>
+      <c r="G897" t="n">
+        <v>84</v>
+      </c>
+      <c r="H897" t="n">
+        <v>84</v>
+      </c>
+      <c r="I897" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J897" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>Y01010100112120240</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>ยิปซัมธรรมดาขอบเรียบ พลัส 12 มม. ตราช้าง</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E898" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F898" t="n">
+        <v>1</v>
+      </c>
+      <c r="G898" t="n">
+        <v>84</v>
+      </c>
+      <c r="H898" t="n">
+        <v>84</v>
+      </c>
+      <c r="I898" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J898" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>G01010010105000000</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. AGC 800x1505 MM</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F899" t="n">
+        <v>2</v>
+      </c>
+      <c r="G899" t="n">
+        <v>29</v>
+      </c>
+      <c r="H899" t="n">
+        <v>58</v>
+      </c>
+      <c r="I899" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J899" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>A01010010108100000</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>คิ้วประตูบานสวิง สีขาว บาง</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E900" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F900" t="n">
+        <v>1</v>
+      </c>
+      <c r="G900" t="n">
+        <v>69</v>
+      </c>
+      <c r="H900" t="n">
+        <v>69</v>
+      </c>
+      <c r="I900" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J900" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>C00010130026060065</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>โครงซีลายน์  No.26 พ่นสีเขียว (6-6.5 kg.)</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E901" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F901" t="n">
+        <v>1</v>
+      </c>
+      <c r="G901" t="n">
+        <v>154</v>
+      </c>
+      <c r="H901" t="n">
+        <v>154</v>
+      </c>
+      <c r="I901" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J901" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>E056141301N4200000</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>รีเวท 4-2 สีขาวอลู ตราคนป่า</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E902" t="inlineStr">
+        <is>
+          <t>กล่อง</t>
+        </is>
+      </c>
+      <c r="F902" t="n">
+        <v>1</v>
+      </c>
+      <c r="G902" t="n">
+        <v>34</v>
+      </c>
+      <c r="H902" t="n">
+        <v>34</v>
+      </c>
+      <c r="I902" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J902" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>G01010010105000000</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. AGC 1000x1050 MM</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F903" t="n">
+        <v>1</v>
+      </c>
+      <c r="G903" t="n">
+        <v>29</v>
+      </c>
+      <c r="H903" t="n">
+        <v>355.25</v>
+      </c>
+      <c r="I903" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J903" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>G01010010105030030</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 30x30 AGC</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E904" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F904" t="n">
+        <v>1</v>
+      </c>
+      <c r="G904" t="n">
+        <v>26</v>
+      </c>
+      <c r="H904" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="I904" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J904" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>Y01010200109120240</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>ยิปซัมธรรมดาขอบลาด พลัส 9 มม. ตราช้าง</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F905" t="n">
+        <v>1</v>
+      </c>
+      <c r="G905" t="n">
+        <v>138</v>
+      </c>
+      <c r="H905" t="n">
+        <v>138</v>
+      </c>
+      <c r="I905" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J905" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>A01010010108100000</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>คิ้วประตูบานสวิง สีขาว บาง</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F906" t="n">
+        <v>1</v>
+      </c>
+      <c r="G906" t="n">
+        <v>69</v>
+      </c>
+      <c r="H906" t="n">
+        <v>69</v>
+      </c>
+      <c r="I906" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J906" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>C00010130026060065</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>โครงซีลายน์  No.26 พ่นสีเขียว (6-6.5 kg.)</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F907" t="n">
+        <v>1</v>
+      </c>
+      <c r="G907" t="n">
+        <v>154</v>
+      </c>
+      <c r="H907" t="n">
+        <v>154</v>
+      </c>
+      <c r="I907" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J907" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>E056141301N4200000</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>รีเวท 4-2 สีขาวอลู ตราคนป่า</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>กล่อง</t>
+        </is>
+      </c>
+      <c r="F908" t="n">
+        <v>1</v>
+      </c>
+      <c r="G908" t="n">
+        <v>34</v>
+      </c>
+      <c r="H908" t="n">
+        <v>34</v>
+      </c>
+      <c r="I908" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J908" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>G01010010105000000</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. AGC 1000x1050 MM</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E909" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F909" t="n">
+        <v>1</v>
+      </c>
+      <c r="G909" t="n">
+        <v>29</v>
+      </c>
+      <c r="H909" t="n">
+        <v>355.25</v>
+      </c>
+      <c r="I909" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J909" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>G01010010105030030</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 30x30 AGC</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E910" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F910" t="n">
+        <v>1</v>
+      </c>
+      <c r="G910" t="n">
+        <v>26</v>
+      </c>
+      <c r="H910" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="I910" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J910" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>Y01010200109120240</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>ยิปซัมธรรมดาขอบลาด พลัส 9 มม. ตราช้าง</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F911" t="n">
+        <v>1</v>
+      </c>
+      <c r="G911" t="n">
+        <v>138</v>
+      </c>
+      <c r="H911" t="n">
+        <v>138</v>
+      </c>
+      <c r="I911" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J911" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>G01010010105024042</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 24x42 AGC</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F912" t="n">
+        <v>1</v>
+      </c>
+      <c r="G912" t="n">
+        <v>26</v>
+      </c>
+      <c r="H912" t="n">
+        <v>182</v>
+      </c>
+      <c r="I912" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J912" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>G01010010105000000</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. AGC 405x477 MM</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F913" t="n">
+        <v>1</v>
+      </c>
+      <c r="G913" t="n">
+        <v>29</v>
+      </c>
+      <c r="H913" t="n">
+        <v>87</v>
+      </c>
+      <c r="I913" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J913" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>G01010010108096120</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 96x120 AGC</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F914" t="n">
+        <v>1</v>
+      </c>
+      <c r="G914" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="H914" t="n">
+        <v>3080</v>
+      </c>
+      <c r="I914" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J914" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>G01010010108072120</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 72x120 AGC</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E915" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F915" t="n">
+        <v>1</v>
+      </c>
+      <c r="G915" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="H915" t="n">
+        <v>2310</v>
+      </c>
+      <c r="I915" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J915" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>G01010010108084120</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 84x120 AGC</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F916" t="n">
+        <v>1</v>
+      </c>
+      <c r="G916" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="H916" t="n">
+        <v>2695</v>
+      </c>
+      <c r="I916" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J916" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>G01010010108096144</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 96x144 AGC</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E917" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F917" t="n">
+        <v>2</v>
+      </c>
+      <c r="G917" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="H917" t="n">
+        <v>7392</v>
+      </c>
+      <c r="I917" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J917" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>G01010010108072120</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 72x120 AGC</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E918" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F918" t="n">
+        <v>3</v>
+      </c>
+      <c r="G918" t="n">
+        <v>42</v>
+      </c>
+      <c r="H918" t="n">
+        <v>7560</v>
+      </c>
+      <c r="I918" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J918" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K918" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data/QuoteTemplate.xlsx
+++ b/backend/data/QuoteTemplate.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U243"/>
+  <dimension ref="A1:U251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD15"/>
@@ -18444,6 +18444,598 @@
         </is>
       </c>
     </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>DAY089</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>บริษัท สามชัยพนา จำกัด</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:11:10</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:11:10</t>
+        </is>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
+        <v>0</v>
+      </c>
+      <c r="O244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P244" t="n">
+        <v>807.48</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>864</v>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:11:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0004</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>11007AY</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>บริษัท ซุปเปอร์กลาส แอนด์ อลูมินั่ม จำกัด</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:19:47</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:19:47</t>
+        </is>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
+        <v>0</v>
+      </c>
+      <c r="O245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P245" t="n">
+        <v>518.6900000000001</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>555</v>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:19:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0005</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>43518TS</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>ห้างหุ้นส่วนจำกัด เอส ซี พี อลูมิเนียม แอนด์ กลาส</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:43:04</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:43:04</t>
+        </is>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
+        <v>0</v>
+      </c>
+      <c r="O246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P246" t="n">
+        <v>84078.5</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>89964</v>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:43:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0006</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>37129TS</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>บริษัท วินเวิร์ธ จำกัด</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:46:07</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:46:07</t>
+        </is>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
+        <v>0</v>
+      </c>
+      <c r="O247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P247" t="n">
+        <v>163714.95</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>175175</v>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:46:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>04123TS</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>ห้างหุ้นส่วนจำกัด เคเอส กู๊ดลิฟวิ่ง แอนด์ ซัพพลาย</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:48:22</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:48:22</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
+        <v>0</v>
+      </c>
+      <c r="O248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P248" t="n">
+        <v>2780.37</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>2975</v>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:48:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0008</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>6709041CB</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>นาย ธเนษฐ นิบุณ</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:56:52</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:56:52</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
+        <v>0</v>
+      </c>
+      <c r="O249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P249" t="n">
+        <v>65.42</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>70</v>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>2026-01-08T20:56:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0009</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>20085TJ</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>บริษัท ดีเวลล์ กลาส แอนด์ อลูมิเนียม จำกัด</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>2026-01-08T21:25:39</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>2026-01-08T21:25:39</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
+        <v>0</v>
+      </c>
+      <c r="O250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P250" t="n">
+        <v>3297.2</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>3528</v>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>2026-01-08T21:25:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0010</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>6709041CB</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>นาย ธเนษฐ นิบุณ</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>2026-01-08T21:32:35</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>2026-01-08T21:32:35</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
+        <v>0</v>
+      </c>
+      <c r="O251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P251" t="n">
+        <v>98.13</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>105</v>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>2026-01-08T21:32:35</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -18455,7 +19047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K918"/>
+  <dimension ref="A1:K931"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -60273,7 +60865,605 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>G01030050305072096</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>กระจกสีเขียว 5 มม. 72x96 AGC</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E919" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F919" t="n">
+        <v>1</v>
+      </c>
+      <c r="G919" t="n">
+        <v>18</v>
+      </c>
+      <c r="H919" t="n">
+        <v>864</v>
+      </c>
+      <c r="I919" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J919" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0004</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>E002040104D1000020</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>มือจับกระทุ้งขวา (แปะ) สีอบขาว TOP</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E920" t="inlineStr">
+        <is>
+          <t>ตัว</t>
+        </is>
+      </c>
+      <c r="F920" t="n">
+        <v>10</v>
+      </c>
+      <c r="G920" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="H920" t="n">
+        <v>555</v>
+      </c>
+      <c r="I920" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J920" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0005</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>G01030050305084084</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>กระจกสีเขียว 5 มม. 84x84 AGC</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F921" t="n">
+        <v>102</v>
+      </c>
+      <c r="G921" t="n">
+        <v>18</v>
+      </c>
+      <c r="H921" t="n">
+        <v>89964</v>
+      </c>
+      <c r="I921" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J921" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0006</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>G01010010108042120</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 42x120 AGC</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E922" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F922" t="n">
+        <v>130</v>
+      </c>
+      <c r="G922" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="H922" t="n">
+        <v>175175</v>
+      </c>
+      <c r="I922" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J922" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>G01010010108084120</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 84x120 AGC</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F923" t="n">
+        <v>1</v>
+      </c>
+      <c r="G923" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="H923" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I923" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J923" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0008</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>G01010010105024024</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 24x24 AGC</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F924" t="n">
+        <v>1</v>
+      </c>
+      <c r="G924" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H924" t="n">
+        <v>70</v>
+      </c>
+      <c r="I924" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J924" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0009</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>G01030050305000000</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>กระจกสีเขียว 5 มม. AGC  613x1863 mm.</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F925" t="n">
+        <v>2</v>
+      </c>
+      <c r="G925" t="n">
+        <v>18</v>
+      </c>
+      <c r="H925" t="n">
+        <v>630</v>
+      </c>
+      <c r="I925" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J925" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0009</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>G01030050305000000</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>กระจกสีเขียว 5 มม. AGC  608x1858 mm.</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F926" t="n">
+        <v>2</v>
+      </c>
+      <c r="G926" t="n">
+        <v>18</v>
+      </c>
+      <c r="H926" t="n">
+        <v>504</v>
+      </c>
+      <c r="I926" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J926" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0009</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>G01030050305000000</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>กระจกสีเขียว 5 มม. AGC  615x1878 mm.</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F927" t="n">
+        <v>2</v>
+      </c>
+      <c r="G927" t="n">
+        <v>18</v>
+      </c>
+      <c r="H927" t="n">
+        <v>630</v>
+      </c>
+      <c r="I927" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J927" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0009</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>G01030050305000000</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>กระจกสีเขียว 5 มม. AGC  615x1873 mm.</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E928" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F928" t="n">
+        <v>2</v>
+      </c>
+      <c r="G928" t="n">
+        <v>18</v>
+      </c>
+      <c r="H928" t="n">
+        <v>630</v>
+      </c>
+      <c r="I928" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J928" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0009</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>G01030050305000000</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>กระจกสีเขียว 5 มม. AGC  613x1873 mm.</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F929" t="n">
+        <v>2</v>
+      </c>
+      <c r="G929" t="n">
+        <v>18</v>
+      </c>
+      <c r="H929" t="n">
+        <v>630</v>
+      </c>
+      <c r="I929" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J929" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0009</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>G01030050305000000</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>กระจกสีเขียว 5 มม. AGC  605x1893 mm.</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F930" t="n">
+        <v>2</v>
+      </c>
+      <c r="G930" t="n">
+        <v>18</v>
+      </c>
+      <c r="H930" t="n">
+        <v>504</v>
+      </c>
+      <c r="I930" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J930" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0010</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>G01010010105024036</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 24x36 AGC</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F931" t="n">
+        <v>1</v>
+      </c>
+      <c r="G931" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H931" t="n">
+        <v>105</v>
+      </c>
+      <c r="I931" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J931" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K931" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data/QuoteTemplate.xlsx
+++ b/backend/data/QuoteTemplate.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U251"/>
+  <dimension ref="A1:U262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD15"/>
@@ -19036,6 +19036,820 @@
         </is>
       </c>
     </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0011</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>37129TS</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>บริษัท วินเวิร์ธ จำกัด</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>2026-01-09T18:59:23</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>2026-01-09T18:59:23</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
+        <v>0</v>
+      </c>
+      <c r="O252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P252" t="n">
+        <v>187102.8</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>200200</v>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>2026-01-09T18:59:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0012</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>43538TS</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>บริษัท อชิอลูมิเนียม จำกัด</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>2026-01-09T19:13:20</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>2026-01-09T19:13:20</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
+        <v>0</v>
+      </c>
+      <c r="O253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P253" t="n">
+        <v>4626.17</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>4950</v>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>2026-01-09T19:13:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>43538TS</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>บริษัท อชิอลูมิเนียม จำกัด</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>2026-01-09T20:11:05</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>2026-01-09T20:11:05</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
+        <v>0</v>
+      </c>
+      <c r="O254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P254" t="n">
+        <v>7009.35</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>7500</v>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>2026-01-09T20:11:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>37003RY</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>บริษัท วีบี ควอลิตี้ ระยอง จำกัด</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>2026-01-09T20:28:24</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>2026-01-09T20:28:24</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
+        <v>0</v>
+      </c>
+      <c r="O255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P255" t="n">
+        <v>14464.49</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>15477</v>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>2026-01-09T20:28:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>37129TS</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>บริษัท วินเวิร์ธ จำกัด</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>2026-01-09T20:30:10</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>2026-01-09T20:30:10</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
+        <v>0</v>
+      </c>
+      <c r="O256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P256" t="n">
+        <v>187102.8</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>200200</v>
+      </c>
+      <c r="R256" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>2026-01-09T20:30:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>04123TS</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>ห้างหุ้นส่วนจำกัด เคเอส กู๊ดลิฟวิ่ง แอนด์ ซัพพลาย</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>2026-01-09T21:52:33</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>2026-01-09T21:52:33</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
+        <v>0</v>
+      </c>
+      <c r="O257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P257" t="n">
+        <v>2780.37</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>2975</v>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>2026-01-09T21:52:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>20085TJ</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>บริษัท ดีเวลล์ กลาส แอนด์ อลูมิเนียม จำกัด</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>2026-01-09T21:56:36</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>2026-01-09T21:56:36</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
+        <v>0</v>
+      </c>
+      <c r="O258" t="n">
+        <v>0</v>
+      </c>
+      <c r="P258" t="n">
+        <v>3297.2</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>3528</v>
+      </c>
+      <c r="R258" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>2026-01-09T21:56:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>37003RY</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>บริษัท วีบี ควอลิตี้ ระยอง จำกัด</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>2026-01-09T21:59:11</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>2026-01-09T21:59:11</t>
+        </is>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
+        <v>0</v>
+      </c>
+      <c r="O259" t="n">
+        <v>0</v>
+      </c>
+      <c r="P259" t="n">
+        <v>14464.49</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>15477</v>
+      </c>
+      <c r="R259" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>2026-01-09T21:59:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0004</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>37129TS</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>บริษัท วินเวิร์ธ จำกัด</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>2026-01-09T22:00:23</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>2026-01-09T22:00:23</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
+        <v>0</v>
+      </c>
+      <c r="O260" t="n">
+        <v>0</v>
+      </c>
+      <c r="P260" t="n">
+        <v>187102.8</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>200200</v>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>2026-01-09T22:00:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0005</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>43518TS</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>ห้างหุ้นส่วนจำกัด เอส ซี พี อลูมิเนียม แอนด์ กลาส</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>2026-01-09T22:02:55</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>2026-01-09T22:02:55</t>
+        </is>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
+        <v>0</v>
+      </c>
+      <c r="O261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P261" t="n">
+        <v>84078.5</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>89964</v>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>2026-01-09T22:02:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0006</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>ผู้ไม่ประสงค์ออกนาม</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>2026-01-10T13:47:57</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>2026-01-10T13:47:57</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>DELIVERY</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
+        <v>0</v>
+      </c>
+      <c r="O262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P262" t="n">
+        <v>368.22</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>394</v>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>2026-01-10T13:47:57</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19047,7 +19861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K931"/>
+  <dimension ref="A1:K954"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -61463,7 +62277,1066 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0011</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>G01010010108048120</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 48x120 AGC</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F932" t="n">
+        <v>130</v>
+      </c>
+      <c r="G932" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="H932" t="n">
+        <v>200200</v>
+      </c>
+      <c r="I932" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J932" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0012</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>C00010130026080085</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>โครงซีลายน์ No.26 พ่นสีเหลือง (8-8.5 kg.)</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F933" t="n">
+        <v>300</v>
+      </c>
+      <c r="G933" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="H933" t="n">
+        <v>4950</v>
+      </c>
+      <c r="I933" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J933" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>C11010130026080085</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t xml:space="preserve">โครงซีลายน์ No.26 พ่นสีเหลือง (8-8.5 kg.) </t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F934" t="n">
+        <v>300</v>
+      </c>
+      <c r="G934" t="n">
+        <v>25</v>
+      </c>
+      <c r="H934" t="n">
+        <v>7500</v>
+      </c>
+      <c r="I934" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J934" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>G01010010108096120</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 96x120 AGC</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F935" t="n">
+        <v>1</v>
+      </c>
+      <c r="G935" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="H935" t="n">
+        <v>3080</v>
+      </c>
+      <c r="I935" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J935" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>G01010010108072120</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 72x120 AGC</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F936" t="n">
+        <v>1</v>
+      </c>
+      <c r="G936" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="H936" t="n">
+        <v>2310</v>
+      </c>
+      <c r="I936" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J936" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>G01010010108084120</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 84x120 AGC</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F937" t="n">
+        <v>1</v>
+      </c>
+      <c r="G937" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="H937" t="n">
+        <v>2695</v>
+      </c>
+      <c r="I937" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J937" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>G01010010108096144</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 96x144 AGC</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F938" t="n">
+        <v>2</v>
+      </c>
+      <c r="G938" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="H938" t="n">
+        <v>7392</v>
+      </c>
+      <c r="I938" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J938" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>G01010010108048120</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 48x120 AGC</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E939" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F939" t="n">
+        <v>130</v>
+      </c>
+      <c r="G939" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="H939" t="n">
+        <v>200200</v>
+      </c>
+      <c r="I939" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J939" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>G01010010108084120</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 84x120 AGC</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E940" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F940" t="n">
+        <v>1</v>
+      </c>
+      <c r="G940" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="H940" t="n">
+        <v>2975</v>
+      </c>
+      <c r="I940" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J940" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>G01030050305000000</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>กระจกสีเขียว 5 มม. 613x1863 mm.</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F941" t="n">
+        <v>2</v>
+      </c>
+      <c r="G941" t="n">
+        <v>18</v>
+      </c>
+      <c r="H941" t="n">
+        <v>630</v>
+      </c>
+      <c r="I941" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J941" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>G01030050305000000</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>กระจกสีเขียว 5 มม. 608x1858 mm.</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F942" t="n">
+        <v>2</v>
+      </c>
+      <c r="G942" t="n">
+        <v>18</v>
+      </c>
+      <c r="H942" t="n">
+        <v>504</v>
+      </c>
+      <c r="I942" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J942" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>G01030050305000000</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>กระจกสีเขียว 5 มม. 615x1878 mm.</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F943" t="n">
+        <v>2</v>
+      </c>
+      <c r="G943" t="n">
+        <v>18</v>
+      </c>
+      <c r="H943" t="n">
+        <v>630</v>
+      </c>
+      <c r="I943" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J943" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>G01030050305000000</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>กระจกสีเขียว 5 มม. 615x1873 mm.</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E944" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F944" t="n">
+        <v>2</v>
+      </c>
+      <c r="G944" t="n">
+        <v>18</v>
+      </c>
+      <c r="H944" t="n">
+        <v>630</v>
+      </c>
+      <c r="I944" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J944" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>G01030050305000000</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>กระจกสีเขียว 5 มม. 613x1873 mm.</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E945" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F945" t="n">
+        <v>2</v>
+      </c>
+      <c r="G945" t="n">
+        <v>18</v>
+      </c>
+      <c r="H945" t="n">
+        <v>630</v>
+      </c>
+      <c r="I945" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J945" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>G01030050305000000</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>กระจกสีเขียว 5 มม. 605x1893 mm.</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E946" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F946" t="n">
+        <v>2</v>
+      </c>
+      <c r="G946" t="n">
+        <v>18</v>
+      </c>
+      <c r="H946" t="n">
+        <v>504</v>
+      </c>
+      <c r="I946" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J946" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>G01010010108096120</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 96x120 AGC</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F947" t="n">
+        <v>1</v>
+      </c>
+      <c r="G947" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="H947" t="n">
+        <v>3080</v>
+      </c>
+      <c r="I947" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J947" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>G01010010108072120</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 72x120 AGC</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E948" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F948" t="n">
+        <v>1</v>
+      </c>
+      <c r="G948" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="H948" t="n">
+        <v>2310</v>
+      </c>
+      <c r="I948" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J948" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>G01010010108084120</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 84x120 AGC</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F949" t="n">
+        <v>1</v>
+      </c>
+      <c r="G949" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="H949" t="n">
+        <v>2695</v>
+      </c>
+      <c r="I949" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J949" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>G01010010108096144</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 96x144 AGC</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E950" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F950" t="n">
+        <v>2</v>
+      </c>
+      <c r="G950" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="H950" t="n">
+        <v>7392</v>
+      </c>
+      <c r="I950" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J950" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0004</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>G01010010108048120</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 48x120 AGC</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E951" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F951" t="n">
+        <v>130</v>
+      </c>
+      <c r="G951" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="H951" t="n">
+        <v>200200</v>
+      </c>
+      <c r="I951" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J951" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0005</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>G01030050305084084</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>กระจกสีเขียว 5 มม. 84x84 AGC</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F952" t="n">
+        <v>102</v>
+      </c>
+      <c r="G952" t="n">
+        <v>18</v>
+      </c>
+      <c r="H952" t="n">
+        <v>89964</v>
+      </c>
+      <c r="I952" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J952" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0006</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>A01000000100000000</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>อลูมิเนียมเส้น</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F953" t="n">
+        <v>1</v>
+      </c>
+      <c r="G953" t="n">
+        <v>169</v>
+      </c>
+      <c r="H953" t="n">
+        <v>169</v>
+      </c>
+      <c r="I953" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J953" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K953" t="inlineStr"/>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0006</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>G01010010105030060</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 30x60 AGC</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F954" t="n">
+        <v>1</v>
+      </c>
+      <c r="G954" t="n">
+        <v>18</v>
+      </c>
+      <c r="H954" t="n">
+        <v>225</v>
+      </c>
+      <c r="I954" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J954" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K954" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data/QuoteTemplate.xlsx
+++ b/backend/data/QuoteTemplate.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U262"/>
+  <dimension ref="A1:U270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD15"/>
@@ -19850,6 +19850,598 @@
         </is>
       </c>
     </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>6808024TJ</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>บริษัท ไทย ซันเคอิ อินเตอร์เนชั่นแนล จำกัด</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>2026-01-13T14:46:33</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>2026-01-13T14:46:33</t>
+        </is>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
+        <v>0</v>
+      </c>
+      <c r="O263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P263" t="n">
+        <v>3902.8</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>4176</v>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>2026-01-13T14:46:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>6802085TS</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>บริษัท จีทีอี เอ็นจิเนียริ่ง จำกัด</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>2026-01-13T14:57:01</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>2026-01-13T14:57:01</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>DELIVERY</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
+        <v>0</v>
+      </c>
+      <c r="O264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P264" t="n">
+        <v>12559.22</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>13438.37</v>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>2026-01-13T14:57:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>25010NS</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>ห้างหุ้นส่วนจำกัด นินจารวมโชค ก่อสร้าง</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>2026-01-13T15:02:37</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>2026-01-13T15:02:37</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
+        <v>0</v>
+      </c>
+      <c r="O265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P265" t="n">
+        <v>397.66</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>425.5</v>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>2026-01-13T15:02:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0004</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>30042RY</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>บริษัท เพื่อนช่าง วัสดุก่อสร้าง จำกัด</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>2026-01-13T15:46:18</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>2026-01-13T15:46:18</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N266" t="n">
+        <v>0</v>
+      </c>
+      <c r="O266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P266" t="n">
+        <v>3037.38</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>3250</v>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>2026-01-13T15:46:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0005</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>01004CB</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>บริษัท กิตเลิศดี อลูมิเนียม อินสตอลเลชั่น จำกัด</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>2026-01-13T16:05:20</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>2026-01-13T16:05:20</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
+        <v>0</v>
+      </c>
+      <c r="O267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P267" t="n">
+        <v>36448.6</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>39000</v>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>2026-01-13T16:05:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0006</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>20161TJ</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>บริษัท ดิอาคิเท็คส์ แอนด์ เทิร์นคีย์ จำกัด</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>2026-01-13T16:18:09</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>2026-01-13T16:18:09</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
+        <v>0</v>
+      </c>
+      <c r="O268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P268" t="n">
+        <v>6459.81</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>6912</v>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>2026-01-13T16:18:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>6807004NS</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>บริษัท บลู ดี แอนด์ ซี จำกัด</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>2026-01-13T16:29:01</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>2026-01-13T16:29:01</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
+        <v>0</v>
+      </c>
+      <c r="O269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P269" t="n">
+        <v>519.16</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>555.5</v>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>2026-01-13T16:29:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0008</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>DTP1088</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>บริษัท วิษณุโชค จำกัด</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>2026-01-13T21:23:29</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>2026-01-13T21:23:29</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
+        <v>0</v>
+      </c>
+      <c r="O270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P270" t="n">
+        <v>68534.58</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>73332</v>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>2026-01-13T21:23:29</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -19861,7 +20453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K954"/>
+  <dimension ref="A1:K976"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -63289,7 +63881,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K953" t="inlineStr"/>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
@@ -63336,7 +63927,1029 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K954" t="inlineStr"/>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>S01010030100000300</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>กลาส แอนด์ เมททัล GM สีทรานซ์</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F955" t="n">
+        <v>48</v>
+      </c>
+      <c r="G955" t="n">
+        <v>87</v>
+      </c>
+      <c r="H955" t="n">
+        <v>4176</v>
+      </c>
+      <c r="I955" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J955" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>G01010010108072144</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 72x144 AGC</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E956" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F956" t="n">
+        <v>1</v>
+      </c>
+      <c r="G956" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="H956" t="n">
+        <v>3204</v>
+      </c>
+      <c r="I956" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J956" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>G01010010108084120</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 84x120 AGC</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F957" t="n">
+        <v>1</v>
+      </c>
+      <c r="G957" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="H957" t="n">
+        <v>3115</v>
+      </c>
+      <c r="I957" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J957" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>G01010010108084144</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 84x144 AGC</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F958" t="n">
+        <v>1</v>
+      </c>
+      <c r="G958" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="H958" t="n">
+        <v>3738</v>
+      </c>
+      <c r="I958" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J958" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>G01010010108072120</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>กระจกใส 8 มม. 72x120 AGC</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E959" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F959" t="n">
+        <v>1</v>
+      </c>
+      <c r="G959" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="H959" t="n">
+        <v>2670</v>
+      </c>
+      <c r="I959" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J959" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>S01010010300000300</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีดำ</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E960" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F960" t="n">
+        <v>3</v>
+      </c>
+      <c r="G960" t="n">
+        <v>65</v>
+      </c>
+      <c r="H960" t="n">
+        <v>195</v>
+      </c>
+      <c r="I960" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J960" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>E053141300N8700010</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>สกรูเกลียวเหล็ก หัวเตเปอร์แฉก F No. 8 x 3 นิ้ว</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>กล่อง</t>
+        </is>
+      </c>
+      <c r="F961" t="n">
+        <v>1</v>
+      </c>
+      <c r="G961" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="H961" t="n">
+        <v>230.5</v>
+      </c>
+      <c r="I961" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J961" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0004</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>C00120000000000000</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>ล็อคกิ้งคีย์</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E962" t="inlineStr">
+        <is>
+          <t>ตัว</t>
+        </is>
+      </c>
+      <c r="F962" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G962" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H962" t="n">
+        <v>3250</v>
+      </c>
+      <c r="I962" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J962" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0005</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>C11010130026060065</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>โครงซีลายน์  No.26 พ่นสีเขียว (6-6.5 kg.) T</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E963" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F963" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G963" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="H963" t="n">
+        <v>39000</v>
+      </c>
+      <c r="I963" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J963" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0006</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>S09050200200000460</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>อะครีลิค 3DI (หลอดแดง) สีขาว</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F964" t="n">
+        <v>216</v>
+      </c>
+      <c r="G964" t="n">
+        <v>32</v>
+      </c>
+      <c r="H964" t="n">
+        <v>6912</v>
+      </c>
+      <c r="I964" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J964" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>A02110011112010000</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>ตัวยู 3 หุน สีอบขาว หนา Premier</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E965" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F965" t="n">
+        <v>11</v>
+      </c>
+      <c r="G965" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="H965" t="n">
+        <v>555.5</v>
+      </c>
+      <c r="I965" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J965" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0008</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>G01010010106000000</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>กระจกใส 6 มม. 48x96</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F966" t="n">
+        <v>30</v>
+      </c>
+      <c r="G966" t="n">
+        <v>21</v>
+      </c>
+      <c r="H966" t="n">
+        <v>20160</v>
+      </c>
+      <c r="I966" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J966" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K966" t="inlineStr"/>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0008</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>G01010010106000000</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>กระจกใส 6 มม. 48x72</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E967" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F967" t="n">
+        <v>4</v>
+      </c>
+      <c r="G967" t="n">
+        <v>21</v>
+      </c>
+      <c r="H967" t="n">
+        <v>2016</v>
+      </c>
+      <c r="I967" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J967" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K967" t="inlineStr"/>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0008</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>G01010010106060096</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>กระจกใส 6 มม. 60x96 AGC</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E968" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F968" t="n">
+        <v>15</v>
+      </c>
+      <c r="G968" t="n">
+        <v>21</v>
+      </c>
+      <c r="H968" t="n">
+        <v>12600</v>
+      </c>
+      <c r="I968" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J968" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K968" t="inlineStr"/>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0008</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>G01010010106000000</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>กระจกใส 6 มม. 48x84 (48*48=1 / 36*48=1)</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F969" t="n">
+        <v>1</v>
+      </c>
+      <c r="G969" t="n">
+        <v>21</v>
+      </c>
+      <c r="H969" t="n">
+        <v>2940</v>
+      </c>
+      <c r="I969" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J969" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K969" t="inlineStr"/>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0008</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>G01010010106000000</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>กระจกใส 6 มม. 48x84 (42*48 = 4)</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E970" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F970" t="n">
+        <v>2</v>
+      </c>
+      <c r="G970" t="n">
+        <v>21</v>
+      </c>
+      <c r="H970" t="n">
+        <v>2940</v>
+      </c>
+      <c r="I970" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J970" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K970" t="inlineStr"/>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0008</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>G01010010106000000</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>กระจกใส 6 มม. 60x72 (30*72=4)</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F971" t="n">
+        <v>2</v>
+      </c>
+      <c r="G971" t="n">
+        <v>21</v>
+      </c>
+      <c r="H971" t="n">
+        <v>1260</v>
+      </c>
+      <c r="I971" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J971" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K971" t="inlineStr"/>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0008</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>G01010010106000000</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>กระจกใส 6 มม. 30x96 (30*48=10)</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F972" t="n">
+        <v>5</v>
+      </c>
+      <c r="G972" t="n">
+        <v>21</v>
+      </c>
+      <c r="H972" t="n">
+        <v>2100</v>
+      </c>
+      <c r="I972" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J972" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K972" t="inlineStr"/>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0008</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>G01010010106000000</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>กระจกใส 6 มม. 48x84 (42*48=10)</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E973" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F973" t="n">
+        <v>5</v>
+      </c>
+      <c r="G973" t="n">
+        <v>21</v>
+      </c>
+      <c r="H973" t="n">
+        <v>2940</v>
+      </c>
+      <c r="I973" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J973" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K973" t="inlineStr"/>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0008</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>G01010010106000000</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>กระจกใส 6 มม. 36x72</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E974" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F974" t="n">
+        <v>10</v>
+      </c>
+      <c r="G974" t="n">
+        <v>21</v>
+      </c>
+      <c r="H974" t="n">
+        <v>3780</v>
+      </c>
+      <c r="I974" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J974" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K974" t="inlineStr"/>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0008</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>G01010010106072096</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>กระจกใส 6 มม. 72x96 AGC</t>
+        </is>
+      </c>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F975" t="n">
+        <v>19</v>
+      </c>
+      <c r="G975" t="n">
+        <v>21</v>
+      </c>
+      <c r="H975" t="n">
+        <v>19152</v>
+      </c>
+      <c r="I975" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J975" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K975" t="inlineStr"/>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0008</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>G01010010106072120</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>กระจกใส 6 มม. 72x120 AGC</t>
+        </is>
+      </c>
+      <c r="D976" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F976" t="n">
+        <v>6</v>
+      </c>
+      <c r="G976" t="n">
+        <v>21</v>
+      </c>
+      <c r="H976" t="n">
+        <v>7560</v>
+      </c>
+      <c r="I976" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J976" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K976" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data/QuoteTemplate.xlsx
+++ b/backend/data/QuoteTemplate.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U270"/>
+  <dimension ref="A1:U272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD15"/>
@@ -20442,6 +20442,154 @@
         </is>
       </c>
     </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0009</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>02009KK</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>ห้างหุ้นส่วนจำกัด ขอนแก่น ยูพีวีซี</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>2026-01-15T13:09:54</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>2026-01-15T13:09:54</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>DELIVERY</t>
+        </is>
+      </c>
+      <c r="N271" t="n">
+        <v>0</v>
+      </c>
+      <c r="O271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P271" t="n">
+        <v>589.72</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>631</v>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t>2026-01-15T13:09:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>TRQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>ผู้ไม่ประสงค์ออกนาม</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>20614</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>ทิพวัลย์  ริ้วงาม</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>2026-01-15T15:06:31</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>2026-01-15T15:06:31</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>00TR</t>
+        </is>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N272" t="n">
+        <v>0</v>
+      </c>
+      <c r="O272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P272" t="n">
+        <v>61.68</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>66</v>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>2026-01-15T15:06:31</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20453,7 +20601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K976"/>
+  <dimension ref="A1:K980"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -64479,7 +64627,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K966" t="inlineStr"/>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
@@ -64526,7 +64673,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K967" t="inlineStr"/>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
@@ -64573,7 +64719,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K968" t="inlineStr"/>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr">
@@ -64620,7 +64765,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K969" t="inlineStr"/>
     </row>
     <row r="970">
       <c r="A970" t="inlineStr">
@@ -64667,7 +64811,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K970" t="inlineStr"/>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
@@ -64714,7 +64857,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K971" t="inlineStr"/>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
@@ -64761,7 +64903,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K972" t="inlineStr"/>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
@@ -64808,7 +64949,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K973" t="inlineStr"/>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
@@ -64855,7 +64995,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K974" t="inlineStr"/>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
@@ -64902,7 +65041,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K975" t="inlineStr"/>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
@@ -64949,7 +65087,191 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K976" t="inlineStr"/>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0009</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>Y04094001615120240</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>บอร์ด ซูเปอร์ซัน ขอบเรียบ 15 มม.120x240  ตราซุปเปอร์ซัน</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F977" t="n">
+        <v>1</v>
+      </c>
+      <c r="G977" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="H977" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="I977" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J977" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0009</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>G01010010105024024</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 24x24 AGC</t>
+        </is>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F978" t="n">
+        <v>1</v>
+      </c>
+      <c r="G978" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H978" t="n">
+        <v>70</v>
+      </c>
+      <c r="I978" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J978" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0009</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>C00400810000000000</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>เกียงโป๊วสีสแตนเลส 3 นิ้ว</t>
+        </is>
+      </c>
+      <c r="D979" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E979" t="inlineStr">
+        <is>
+          <t>อัน</t>
+        </is>
+      </c>
+      <c r="F979" t="n">
+        <v>1</v>
+      </c>
+      <c r="G979" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H979" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I979" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J979" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>TRQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>S01010010500000300</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีเทา</t>
+        </is>
+      </c>
+      <c r="D980" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E980" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F980" t="n">
+        <v>1</v>
+      </c>
+      <c r="G980" t="n">
+        <v>66</v>
+      </c>
+      <c r="H980" t="n">
+        <v>66</v>
+      </c>
+      <c r="I980" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J980" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K980" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data/QuoteTemplate.xlsx
+++ b/backend/data/QuoteTemplate.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U272"/>
+  <dimension ref="A1:U273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD15"/>
@@ -20590,6 +20590,80 @@
         </is>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>CMQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>DTP1088</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>บริษัท วิษณุโชค จำกัด</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>13583</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>ศุภณัฐ  เขตประทุม</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>2026-01-16T00:02:34</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>2026-01-16T00:02:34</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>12CM</t>
+        </is>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N273" t="n">
+        <v>0</v>
+      </c>
+      <c r="O273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P273" t="n">
+        <v>490.65</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>525</v>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t>2026-01-16T00:02:34</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20601,7 +20675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K980"/>
+  <dimension ref="A1:K981"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -65271,7 +65345,53 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>CMQT-2601/0001</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>G01010010106000000</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>กระจกใส 6 มม. AGC 48x96 (48*48=60)</t>
+        </is>
+      </c>
+      <c r="D981" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F981" t="n">
+        <v>30</v>
+      </c>
+      <c r="G981" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="H981" t="n">
+        <v>525</v>
+      </c>
+      <c r="I981" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J981" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K981" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data/QuoteTemplate.xlsx
+++ b/backend/data/QuoteTemplate.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U273"/>
+  <dimension ref="A1:U274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD15"/>
@@ -20664,6 +20664,80 @@
         </is>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>CMQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>08015AY-1</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>ห้างหุ้นส่วนจำกัด เคยูเค เอ็นจิเนียริ่ง</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>13583</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>ศุภณัฐ  เขตประทุม</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>2026-01-16T22:39:05</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>2026-01-16T22:39:05</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>12CM</t>
+        </is>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>DELIVERY</t>
+        </is>
+      </c>
+      <c r="N274" t="n">
+        <v>0</v>
+      </c>
+      <c r="O274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P274" t="n">
+        <v>554.21</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>593</v>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>2026-01-16T22:39:05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20675,7 +20749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K981"/>
+  <dimension ref="A1:K982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -65391,7 +65465,53 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K981" t="inlineStr"/>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>CMQT-2601/0002</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>A01010010110090000</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>เสาประตูข้างบานสวิง สีขาว 1.0</t>
+        </is>
+      </c>
+      <c r="D982" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E982" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F982" t="n">
+        <v>1</v>
+      </c>
+      <c r="G982" t="n">
+        <v>593</v>
+      </c>
+      <c r="H982" t="n">
+        <v>593</v>
+      </c>
+      <c r="I982" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J982" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K982" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data/QuoteTemplate.xlsx
+++ b/backend/data/QuoteTemplate.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U274"/>
+  <dimension ref="A1:U277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD15"/>
@@ -20738,6 +20738,228 @@
         </is>
       </c>
     </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>23016AY</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>คุณ ทวีวัฒน์ พรรณสุภผล</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>2026-01-19T13:44:38</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>2026-01-19T13:44:38</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>DELIVERY</t>
+        </is>
+      </c>
+      <c r="N275" t="n">
+        <v>0</v>
+      </c>
+      <c r="O275" t="n">
+        <v>0</v>
+      </c>
+      <c r="P275" t="n">
+        <v>909.11</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>972.75</v>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>2026-01-19T13:44:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>23016AY</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>คุณ ทวีวัฒน์ พรรณสุภผล</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>2026-01-19T13:44:38</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>2026-01-19T13:45:29</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N276" t="n">
+        <v>0</v>
+      </c>
+      <c r="O276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P276" t="n">
+        <v>688.9</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>740.75</v>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>2026-01-19T13:45:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>23016AY</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>คุณ ทวีวัฒน์ พรรณสุภผล</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>21113</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>เสาวลักษณ์  ม้วนหนู</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>2026-01-19T13:44:38</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>2026-01-19T13:45:46</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>21BS</t>
+        </is>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N277" t="n">
+        <v>0</v>
+      </c>
+      <c r="O277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P277" t="n">
+        <v>720.52</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>774.75</v>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>2026-01-19T13:45:46</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20749,7 +20971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K982"/>
+  <dimension ref="A1:K993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -65511,7 +65733,516 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K982" t="inlineStr"/>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>A01010010110090000</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>เสาประตูข้างบานสวิง สีขาว 1.0</t>
+        </is>
+      </c>
+      <c r="D983" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F983" t="n">
+        <v>1</v>
+      </c>
+      <c r="G983" t="n">
+        <v>574.5</v>
+      </c>
+      <c r="H983" t="n">
+        <v>574.5</v>
+      </c>
+      <c r="I983" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J983" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>S01010010500000300</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีเทา</t>
+        </is>
+      </c>
+      <c r="D984" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F984" t="n">
+        <v>1</v>
+      </c>
+      <c r="G984" t="n">
+        <v>60</v>
+      </c>
+      <c r="H984" t="n">
+        <v>60</v>
+      </c>
+      <c r="I984" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J984" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>G01010010105018042</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 18x42 AGC</t>
+        </is>
+      </c>
+      <c r="D985" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E985" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F985" t="n">
+        <v>1</v>
+      </c>
+      <c r="G985" t="n">
+        <v>17</v>
+      </c>
+      <c r="H985" t="n">
+        <v>89.25</v>
+      </c>
+      <c r="I985" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J985" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>A01010010110090000</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>เสาประตูข้างบานสวิง สีขาว 1.0</t>
+        </is>
+      </c>
+      <c r="D986" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F986" t="n">
+        <v>1</v>
+      </c>
+      <c r="G986" t="n">
+        <v>574.5</v>
+      </c>
+      <c r="H986" t="n">
+        <v>574.5</v>
+      </c>
+      <c r="I986" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J986" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>S01010010500000300</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีเทา</t>
+        </is>
+      </c>
+      <c r="D987" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F987" t="n">
+        <v>1</v>
+      </c>
+      <c r="G987" t="n">
+        <v>60</v>
+      </c>
+      <c r="H987" t="n">
+        <v>60</v>
+      </c>
+      <c r="I987" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J987" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>G01010010105018042</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 18x42 AGC</t>
+        </is>
+      </c>
+      <c r="D988" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E988" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F988" t="n">
+        <v>1</v>
+      </c>
+      <c r="G988" t="n">
+        <v>17</v>
+      </c>
+      <c r="H988" t="n">
+        <v>89.25</v>
+      </c>
+      <c r="I988" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J988" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>E056141303N4400000</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>รีเวท 4-4 สีดำ ตราคนป่า</t>
+        </is>
+      </c>
+      <c r="D989" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>กล่อง</t>
+        </is>
+      </c>
+      <c r="F989" t="n">
+        <v>1</v>
+      </c>
+      <c r="G989" t="n">
+        <v>17</v>
+      </c>
+      <c r="H989" t="n">
+        <v>17</v>
+      </c>
+      <c r="I989" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J989" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>A01010010110090000</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>เสาประตูข้างบานสวิง สีขาว 1.0</t>
+        </is>
+      </c>
+      <c r="D990" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E990" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F990" t="n">
+        <v>1</v>
+      </c>
+      <c r="G990" t="n">
+        <v>574.5</v>
+      </c>
+      <c r="H990" t="n">
+        <v>574.5</v>
+      </c>
+      <c r="I990" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J990" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>S01010010500000300</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีเทา</t>
+        </is>
+      </c>
+      <c r="D991" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F991" t="n">
+        <v>1</v>
+      </c>
+      <c r="G991" t="n">
+        <v>60</v>
+      </c>
+      <c r="H991" t="n">
+        <v>60</v>
+      </c>
+      <c r="I991" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J991" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K991" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>G01010010105018042</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 18x42 AGC</t>
+        </is>
+      </c>
+      <c r="D992" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F992" t="n">
+        <v>1</v>
+      </c>
+      <c r="G992" t="n">
+        <v>17</v>
+      </c>
+      <c r="H992" t="n">
+        <v>89.25</v>
+      </c>
+      <c r="I992" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J992" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>E056141303N4400000</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>รีเวท 4-4 สีดำ ตราคนป่า</t>
+        </is>
+      </c>
+      <c r="D993" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E993" t="inlineStr">
+        <is>
+          <t>กล่อง</t>
+        </is>
+      </c>
+      <c r="F993" t="n">
+        <v>3</v>
+      </c>
+      <c r="G993" t="n">
+        <v>17</v>
+      </c>
+      <c r="H993" t="n">
+        <v>51</v>
+      </c>
+      <c r="I993" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J993" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K993" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data/QuoteTemplate.xlsx
+++ b/backend/data/QuoteTemplate.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U277"/>
+  <dimension ref="A1:U278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD15"/>
@@ -20960,6 +20960,80 @@
         </is>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>CMQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>ณภัทร์</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>13583</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>ศุภณัฐ  เขตประทุม</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>2026-01-20T00:36:39</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>2026-01-20T00:36:39</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>12CM</t>
+        </is>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>DELIVERY</t>
+        </is>
+      </c>
+      <c r="N278" t="n">
+        <v>0</v>
+      </c>
+      <c r="O278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P278" t="n">
+        <v>950.9299999999999</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>1017.5</v>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U278" t="inlineStr">
+        <is>
+          <t>2026-01-20T00:36:39</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -20971,7 +21045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K993"/>
+  <dimension ref="A1:K996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -66101,7 +66175,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K990" t="inlineStr"/>
     </row>
     <row r="991">
       <c r="A991" t="inlineStr">
@@ -66148,7 +66221,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K991" t="inlineStr"/>
     </row>
     <row r="992">
       <c r="A992" t="inlineStr">
@@ -66195,7 +66267,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K992" t="inlineStr"/>
     </row>
     <row r="993">
       <c r="A993" t="inlineStr">
@@ -66242,7 +66313,147 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K993" t="inlineStr"/>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>CMQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>A01010010110090000</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>เสาประตูข้างบานสวิง สีขาว 1.0</t>
+        </is>
+      </c>
+      <c r="D994" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E994" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F994" t="n">
+        <v>1</v>
+      </c>
+      <c r="G994" t="n">
+        <v>591.5</v>
+      </c>
+      <c r="H994" t="n">
+        <v>591.5</v>
+      </c>
+      <c r="I994" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J994" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>CMQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>G01010010105024042</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 24x42 AGC</t>
+        </is>
+      </c>
+      <c r="D995" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E995" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F995" t="n">
+        <v>1</v>
+      </c>
+      <c r="G995" t="n">
+        <v>18</v>
+      </c>
+      <c r="H995" t="n">
+        <v>126</v>
+      </c>
+      <c r="I995" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J995" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>CMQT-2601/0003</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>S01010010200000300</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีขาว</t>
+        </is>
+      </c>
+      <c r="D996" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E996" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F996" t="n">
+        <v>1</v>
+      </c>
+      <c r="G996" t="n">
+        <v>66</v>
+      </c>
+      <c r="H996" t="n">
+        <v>66</v>
+      </c>
+      <c r="I996" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J996" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K996" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data/QuoteTemplate.xlsx
+++ b/backend/data/QuoteTemplate.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U280"/>
+  <dimension ref="A1:U282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD15"/>
@@ -21182,6 +21182,154 @@
         </is>
       </c>
     </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0010</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>23016AY</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>คุณ ทวีวัฒน์ พรรณสุภผล</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>2026-01-21T13:14:15</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>2026-01-21T13:14:15</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>DELIVERY</t>
+        </is>
+      </c>
+      <c r="N281" t="n">
+        <v>0</v>
+      </c>
+      <c r="O281" t="n">
+        <v>0</v>
+      </c>
+      <c r="P281" t="n">
+        <v>1459.35</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>1561.5</v>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>2026-01-21T13:14:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>23016AY</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>คุณ ทวีวัฒน์ พรรณสุภผล</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>2026-01-19T13:44:38</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>2026-01-21T13:39:47</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N282" t="n">
+        <v>0</v>
+      </c>
+      <c r="O282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P282" t="n">
+        <v>720.52</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>774.75</v>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>2026-01-21T13:39:47</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21193,7 +21341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1000"/>
+  <dimension ref="A1:K1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -66737,7 +66885,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K999" t="inlineStr"/>
     </row>
     <row r="1000">
       <c r="A1000" t="inlineStr">
@@ -66784,7 +66931,470 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0010</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>A01010010110100000</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>คิ้วประตูบานสวิง สีขาว 1.0</t>
+        </is>
+      </c>
+      <c r="D1001" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E1001" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F1001" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1001" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="I1001" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1001" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0010</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>C00200830000000000</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>สกรูยิปซั่ม 6 หุน (19 มม. - ญ)</t>
+        </is>
+      </c>
+      <c r="D1002" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E1002" t="inlineStr">
+        <is>
+          <t>กล่อง</t>
+        </is>
+      </c>
+      <c r="F1002" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1002" t="n">
+        <v>57</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>114</v>
+      </c>
+      <c r="I1002" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1002" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0010</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>E056141303N4400000</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>รีเวท 4-4 สีดำ ตราคนป่า</t>
+        </is>
+      </c>
+      <c r="D1003" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E1003" t="inlineStr">
+        <is>
+          <t>กล่อง</t>
+        </is>
+      </c>
+      <c r="F1003" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1003" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1003" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0010</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>G01010010105009030</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 9x30 AGC</t>
+        </is>
+      </c>
+      <c r="D1004" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E1004" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F1004" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1004" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>63.75</v>
+      </c>
+      <c r="I1004" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1004" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0010</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>G01010010106000000</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>กระจกใส 6 มม. AGC 1000x1050 mm</t>
+        </is>
+      </c>
+      <c r="D1005" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E1005" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F1005" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1005" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>502.25</v>
+      </c>
+      <c r="I1005" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1005" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0010</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>Y04094001615120240</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>บอร์ด ซูเปอร์ซัน ขอบเรียบ 15 มม.120x240  ตราซุปเปอร์ซัน</t>
+        </is>
+      </c>
+      <c r="D1006" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="E1006" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F1006" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1006" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1006" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>A01010010110090000</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>เสาประตูข้างบานสวิง สีขาว 1.0</t>
+        </is>
+      </c>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E1007" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F1007" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1007" t="n">
+        <v>574.5</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>574.5</v>
+      </c>
+      <c r="I1007" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1007" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>S01010010500000300</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีเทา</t>
+        </is>
+      </c>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E1008" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F1008" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1008" t="n">
+        <v>60</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>60</v>
+      </c>
+      <c r="I1008" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1008" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>G01010010105018042</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>กระจกใส 5 มม. 18x42 AGC</t>
+        </is>
+      </c>
+      <c r="D1009" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="E1009" t="inlineStr">
+        <is>
+          <t>แผ่น</t>
+        </is>
+      </c>
+      <c r="F1009" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1009" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>89.25</v>
+      </c>
+      <c r="I1009" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1009" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>BSQT-2601/0007</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>E056141303N4400000</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>รีเวท 4-4 สีดำ ตราคนป่า</t>
+        </is>
+      </c>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="E1010" t="inlineStr">
+        <is>
+          <t>กล่อง</t>
+        </is>
+      </c>
+      <c r="F1010" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1010" t="n">
+        <v>17</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>51</v>
+      </c>
+      <c r="I1010" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1010" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K1010" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data/QuoteTemplate.xlsx
+++ b/backend/data/QuoteTemplate.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U282"/>
+  <dimension ref="A1:U301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD15"/>
@@ -21330,6 +21330,1412 @@
         </is>
       </c>
     </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0011</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>23016AY</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>คุณ ทวีวัฒน์ พรรณสุภผล</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:14:32</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:14:32</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N283" t="n">
+        <v>0</v>
+      </c>
+      <c r="O283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P283" t="n">
+        <v>524.3</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>561</v>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:14:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0012</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>6706007RY</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>นายสุริยะ เนตรฤาชา</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:17:33</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:17:33</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N284" t="n">
+        <v>0</v>
+      </c>
+      <c r="O284" t="n">
+        <v>0</v>
+      </c>
+      <c r="P284" t="n">
+        <v>542.99</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>581</v>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:17:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0013</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>01023AY</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>นาง กุลิสรา นิธิรุ่งเรืองรัฐ</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:21:59</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:21:59</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N285" t="n">
+        <v>0</v>
+      </c>
+      <c r="O285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P285" t="n">
+        <v>60.75</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>65</v>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:21:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0014</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>01023AY</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>นาง กุลิสรา นิธิรุ่งเรืองรัฐ</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:28:42</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:28:42</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N286" t="n">
+        <v>0</v>
+      </c>
+      <c r="O286" t="n">
+        <v>0</v>
+      </c>
+      <c r="P286" t="n">
+        <v>60.75</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>65</v>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:28:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0015</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>01021AY</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>นาย กาญจะนะ นาคา</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:29:03</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:29:03</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N287" t="n">
+        <v>0</v>
+      </c>
+      <c r="O287" t="n">
+        <v>0</v>
+      </c>
+      <c r="P287" t="n">
+        <v>60.75</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>65</v>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:29:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0016</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>01021AY</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>นาย กาญจะนะ นาคา</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:31:30</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:31:30</t>
+        </is>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N288" t="n">
+        <v>0</v>
+      </c>
+      <c r="O288" t="n">
+        <v>0</v>
+      </c>
+      <c r="P288" t="n">
+        <v>60.75</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>65</v>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:31:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0017</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>08015AY-10</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>บริษัท พิชญ์อนันต์ จำกัด</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:36:34</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:36:34</t>
+        </is>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N289" t="n">
+        <v>0</v>
+      </c>
+      <c r="O289" t="n">
+        <v>0</v>
+      </c>
+      <c r="P289" t="n">
+        <v>60.75</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>65</v>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:36:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0018</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>00001NR-6</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>ห้างหุ้นส่วนจำกัด โคราชรวมพัฒนา 2545</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:39:37</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:39:37</t>
+        </is>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N290" t="n">
+        <v>0</v>
+      </c>
+      <c r="O290" t="n">
+        <v>0</v>
+      </c>
+      <c r="P290" t="n">
+        <v>60.75</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>65</v>
+      </c>
+      <c r="R290" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:39:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0019</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>00001UD-1</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>บริษัท เจ.พี.พาวเวอร์ จำกัด</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:50:04</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:50:04</t>
+        </is>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N291" t="n">
+        <v>0</v>
+      </c>
+      <c r="O291" t="n">
+        <v>0</v>
+      </c>
+      <c r="P291" t="n">
+        <v>60.75</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>65</v>
+      </c>
+      <c r="R291" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U291" t="inlineStr">
+        <is>
+          <t>2026-01-21T22:50:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0020</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>01154TP</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>บริษัท กะรัต เอ็นเตอร์ไพรส์ (ประเทศไทย) จำกัด</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>2026-01-21T23:15:06</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>2026-01-21T23:15:06</t>
+        </is>
+      </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N292" t="n">
+        <v>0</v>
+      </c>
+      <c r="O292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P292" t="n">
+        <v>61.21</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="R292" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>2026-01-21T23:15:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0021</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>01001BS-1</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>บริษัท ทรัพย์ไพศาล 4554 จำกัด</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>2026-01-21T23:20:43</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>2026-01-21T23:20:43</t>
+        </is>
+      </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N293" t="n">
+        <v>0</v>
+      </c>
+      <c r="O293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P293" t="n">
+        <v>6074.77</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>6500</v>
+      </c>
+      <c r="R293" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t>2026-01-21T23:20:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0022</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>04045TP</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>ห้างหุ้นส่วนจำกัด เค เจ เอ เซอร์วิส</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>2026-01-21T23:26:30</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>2026-01-21T23:26:30</t>
+        </is>
+      </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N294" t="n">
+        <v>0</v>
+      </c>
+      <c r="O294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P294" t="n">
+        <v>60.75</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>65</v>
+      </c>
+      <c r="R294" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>2026-01-21T23:26:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0023</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>01145TS</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>บริษัท เก้ากฤช จำกัด</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>2026-01-21T23:27:59</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>2026-01-21T23:27:59</t>
+        </is>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N295" t="n">
+        <v>0</v>
+      </c>
+      <c r="O295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P295" t="n">
+        <v>542.99</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>581</v>
+      </c>
+      <c r="R295" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>2026-01-21T23:27:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0024</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>11048TP</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>บริษัท ซี วี เอส เทคโนโลยี่ จำกัด</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>2026-01-22T00:23:30</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>2026-01-22T00:23:30</t>
+        </is>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N296" t="n">
+        <v>0</v>
+      </c>
+      <c r="O296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P296" t="n">
+        <v>542.99</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>581</v>
+      </c>
+      <c r="R296" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>2026-01-22T00:23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0025</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>31045TS-1</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>บริษัท ทรินนิตี้ แอสโซซิเอทส์ พลัส จำกัด</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>2026-01-22T11:36:21</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>2026-01-22T11:36:21</t>
+        </is>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N297" t="n">
+        <v>0</v>
+      </c>
+      <c r="O297" t="n">
+        <v>0</v>
+      </c>
+      <c r="P297" t="n">
+        <v>60.75</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>65</v>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>2026-01-22T11:36:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0026</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>08048RB</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>นาง จุฑาทิพย์ ทิพย์บำรุง</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>2026-01-22T15:00:35</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>2026-01-22T15:00:35</t>
+        </is>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N298" t="n">
+        <v>0</v>
+      </c>
+      <c r="O298" t="n">
+        <v>0</v>
+      </c>
+      <c r="P298" t="n">
+        <v>60.75</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>65</v>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t>2026-01-22T15:00:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0027</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>23016AY</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>คุณ ทวีวัฒน์ พรรณสุภผล</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>2026-01-22T16:29:39</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>2026-01-22T16:29:39</t>
+        </is>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N299" t="n">
+        <v>0</v>
+      </c>
+      <c r="O299" t="n">
+        <v>0</v>
+      </c>
+      <c r="P299" t="n">
+        <v>59.52</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>64</v>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U299" t="inlineStr">
+        <is>
+          <t>2026-01-22T16:29:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0027</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>23016AY</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>คุณ ทวีวัฒน์ พรรณสุภผล</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>2026-01-22T16:29:39</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>2026-01-22T16:29:49</t>
+        </is>
+      </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N300" t="n">
+        <v>0</v>
+      </c>
+      <c r="O300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P300" t="n">
+        <v>59.52</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>64</v>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U300" t="inlineStr">
+        <is>
+          <t>2026-01-22T16:29:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0028</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>04085TP</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>บริษัท แค็บ-โปร จำกัด</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>21509</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>อุบลรัตน์  ปรีแย้ม</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>2026-01-22T16:51:46</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>2026-01-22T16:51:46</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>03TS</t>
+        </is>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="N301" t="n">
+        <v>0</v>
+      </c>
+      <c r="O301" t="n">
+        <v>0</v>
+      </c>
+      <c r="P301" t="n">
+        <v>93</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>100</v>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>2026-01-22T16:51:46</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -21341,7 +22747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1010"/>
+  <dimension ref="A1:K1029"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -67253,7 +68659,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K1007" t="inlineStr"/>
     </row>
     <row r="1008">
       <c r="A1008" t="inlineStr">
@@ -67300,7 +68705,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K1008" t="inlineStr"/>
     </row>
     <row r="1009">
       <c r="A1009" t="inlineStr">
@@ -67347,7 +68751,6 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K1009" t="inlineStr"/>
     </row>
     <row r="1010">
       <c r="A1010" t="inlineStr">
@@ -67394,7 +68797,881 @@
           <t>""</t>
         </is>
       </c>
-      <c r="K1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0011</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>A01010010110090000</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>เสาประตูข้างบานสวิง สีขาว 1.0</t>
+        </is>
+      </c>
+      <c r="D1011" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E1011" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F1011" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1011" t="n">
+        <v>561</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>561</v>
+      </c>
+      <c r="I1011" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1011" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0012</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>A01010010110090000</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>เสาประตูข้างบานสวิง สีขาว 1.0</t>
+        </is>
+      </c>
+      <c r="D1012" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E1012" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F1012" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1012" t="n">
+        <v>581</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>581</v>
+      </c>
+      <c r="I1012" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1012" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0013</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>S01010010200000300</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีขาว</t>
+        </is>
+      </c>
+      <c r="D1013" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E1013" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F1013" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1013" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>65</v>
+      </c>
+      <c r="I1013" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1013" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0014</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>S01010010200000300</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีขาว</t>
+        </is>
+      </c>
+      <c r="D1014" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E1014" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F1014" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1014" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>65</v>
+      </c>
+      <c r="I1014" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1014" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0015</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>S01010010200000300</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีขาว</t>
+        </is>
+      </c>
+      <c r="D1015" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E1015" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F1015" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1015" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>65</v>
+      </c>
+      <c r="I1015" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1015" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0016</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>S01010010200000300</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีขาว</t>
+        </is>
+      </c>
+      <c r="D1016" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E1016" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F1016" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1016" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>65</v>
+      </c>
+      <c r="I1016" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1016" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0017</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>S01010010200000300</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีขาว</t>
+        </is>
+      </c>
+      <c r="D1017" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E1017" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F1017" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1017" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>65</v>
+      </c>
+      <c r="I1017" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1017" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0018</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>S01010010200000300</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีขาว</t>
+        </is>
+      </c>
+      <c r="D1018" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E1018" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F1018" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1018" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>65</v>
+      </c>
+      <c r="I1018" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1018" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0019</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>S01010010100000300</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีใส</t>
+        </is>
+      </c>
+      <c r="D1019" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E1019" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F1019" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1019" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>65</v>
+      </c>
+      <c r="I1019" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1019" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0020</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>S01010010200000300</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีขาว</t>
+        </is>
+      </c>
+      <c r="D1020" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E1020" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F1020" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1020" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="I1020" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1020" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0021</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>S01010010200000300</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีขาว</t>
+        </is>
+      </c>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E1021" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F1021" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1021" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>6500</v>
+      </c>
+      <c r="I1021" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1021" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0022</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>S01010010200000300</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีขาว</t>
+        </is>
+      </c>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E1022" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F1022" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1022" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>65</v>
+      </c>
+      <c r="I1022" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1022" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0023</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>A01010010110090000</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>เสาประตูข้างบานสวิง สีขาว 1.0</t>
+        </is>
+      </c>
+      <c r="D1023" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E1023" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F1023" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1023" t="n">
+        <v>581</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>581</v>
+      </c>
+      <c r="I1023" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1023" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0024</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>A01010010110090000</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>เสาประตูข้างบานสวิง สีขาว 1.0</t>
+        </is>
+      </c>
+      <c r="D1024" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E1024" t="inlineStr">
+        <is>
+          <t>เส้น</t>
+        </is>
+      </c>
+      <c r="F1024" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1024" t="n">
+        <v>581</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>581</v>
+      </c>
+      <c r="I1024" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1024" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0025</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>S01010010200000300</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีขาว</t>
+        </is>
+      </c>
+      <c r="D1025" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E1025" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F1025" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1025" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>65</v>
+      </c>
+      <c r="I1025" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1025" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0026</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>S01010010200000300</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีขาว</t>
+        </is>
+      </c>
+      <c r="D1026" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E1026" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F1026" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1026" t="n">
+        <v>55</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>65</v>
+      </c>
+      <c r="I1026" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1026" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0027</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>S01010010200000300</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีขาว</t>
+        </is>
+      </c>
+      <c r="D1027" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E1027" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F1027" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1027" t="n">
+        <v>64</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>64</v>
+      </c>
+      <c r="I1027" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1027" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0027</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>S01010010200000300</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีขาว</t>
+        </is>
+      </c>
+      <c r="D1028" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E1028" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F1028" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1028" t="n">
+        <v>64</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>64</v>
+      </c>
+      <c r="I1028" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1028" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>TSQT-2601/0028</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>S01010010200000300</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>เจเนรัล เพอโพส GP สีขาว</t>
+        </is>
+      </c>
+      <c r="D1029" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E1029" t="inlineStr">
+        <is>
+          <t>หลอด</t>
+        </is>
+      </c>
+      <c r="F1029" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1029" t="n">
+        <v>50</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>130</v>
+      </c>
+      <c r="I1029" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="J1029" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+      <c r="K1029" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
